--- a/info.comunas.xlsx
+++ b/info.comunas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Villagran\Desktop\scribs\datavoz\barometros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Villagran\Desktop\scribs\datavoz\barometros\pretest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CC02EF-238D-4230-A566-39A8E5D73D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40DFF44-0391-4D7F-A510-77D48A99E6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comuna" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="789">
   <si>
     <t>region</t>
   </si>
@@ -1207,6 +1207,1200 @@
   </si>
   <si>
     <t>cristofer brunetti nuñez</t>
+  </si>
+  <si>
+    <t>italo andres bravo lizana</t>
+  </si>
+  <si>
+    <t>cinthya muñoz escanilla</t>
+  </si>
+  <si>
+    <t>javiera soto fuentes</t>
+  </si>
+  <si>
+    <t>esteban sepulveda reyes</t>
+  </si>
+  <si>
+    <t>sandy muñoz poblete</t>
+  </si>
+  <si>
+    <t>cristian veliz solis</t>
+  </si>
+  <si>
+    <t>carolina seguel hidalgo</t>
+  </si>
+  <si>
+    <t>jose escobar rodriguez</t>
+  </si>
+  <si>
+    <t>alda magaña leiva</t>
+  </si>
+  <si>
+    <t>gisela vila ruz</t>
+  </si>
+  <si>
+    <t>patricio cisternas monreal</t>
+  </si>
+  <si>
+    <t>german codina powers</t>
+  </si>
+  <si>
+    <t>denisse hermosilla carvallo</t>
+  </si>
+  <si>
+    <t>felipe ossandon ross</t>
+  </si>
+  <si>
+    <t>macarena garate gonzalez</t>
+  </si>
+  <si>
+    <t>maria fernanda salinas lueyza</t>
+  </si>
+  <si>
+    <t>olivier mellado rodriguez</t>
+  </si>
+  <si>
+    <t>juan paulo concha olivares</t>
+  </si>
+  <si>
+    <t>maria olga yanez real</t>
+  </si>
+  <si>
+    <t>karina angelica ordenes ramirez</t>
+  </si>
+  <si>
+    <t>sara contreras alarcon</t>
+  </si>
+  <si>
+    <t>paulina bobadilla navarrete</t>
+  </si>
+  <si>
+    <t>alexandra arancibia olea</t>
+  </si>
+  <si>
+    <t>lorena ayala galaz</t>
+  </si>
+  <si>
+    <t>juan pablo muñoz milla</t>
+  </si>
+  <si>
+    <t>daniela cuevas fuentes</t>
+  </si>
+  <si>
+    <t>maria margarita indo romo</t>
+  </si>
+  <si>
+    <t>nicolas quiroz venegas</t>
+  </si>
+  <si>
+    <t>miguel astudillo caceres</t>
+  </si>
+  <si>
+    <t>gonzalo lopez pizarro</t>
+  </si>
+  <si>
+    <t>karina delfino mussa</t>
+  </si>
+  <si>
+    <t>eduardo valdes san martin</t>
+  </si>
+  <si>
+    <t>yohanna caceres lloncon</t>
+  </si>
+  <si>
+    <t>matilde perez ravelo</t>
+  </si>
+  <si>
+    <t>adriano castillo herrera</t>
+  </si>
+  <si>
+    <t>sebastian alburquenque garrido</t>
+  </si>
+  <si>
+    <t>margarita ruiz olivares</t>
+  </si>
+  <si>
+    <t>antonieta flores miranda</t>
+  </si>
+  <si>
+    <t>nicolas jaramillo mendez</t>
+  </si>
+  <si>
+    <t>fares jadue leiva</t>
+  </si>
+  <si>
+    <t>natalia cuevas guerrero</t>
+  </si>
+  <si>
+    <t>karen garrido ganga</t>
+  </si>
+  <si>
+    <t>joceline parra delgadillo</t>
+  </si>
+  <si>
+    <t>cristian weibel avendaño</t>
+  </si>
+  <si>
+    <t>silvana flores cruz</t>
+  </si>
+  <si>
+    <t>felipe cruz huanchicay</t>
+  </si>
+  <si>
+    <t>jose luis salas</t>
+  </si>
+  <si>
+    <t>daniel jadue</t>
+  </si>
+  <si>
+    <t>claudio castro salas</t>
+  </si>
+  <si>
+    <t>cesar amestica</t>
+  </si>
+  <si>
+    <t>ismael araya</t>
+  </si>
+  <si>
+    <t>camila aviles</t>
+  </si>
+  <si>
+    <t>ishkra calderon</t>
+  </si>
+  <si>
+    <t>ana paz casimiro</t>
+  </si>
+  <si>
+    <t>diego fuentes</t>
+  </si>
+  <si>
+    <t>cecilia lopez</t>
+  </si>
+  <si>
+    <t>claudio sepulveda</t>
+  </si>
+  <si>
+    <t>christopher white bahamondes</t>
+  </si>
+  <si>
+    <t>roberto soto ferrada</t>
+  </si>
+  <si>
+    <t>cristina cofre guerrero</t>
+  </si>
+  <si>
+    <t>karina leyton espinoza</t>
+  </si>
+  <si>
+    <t>leonel navarro ormeño</t>
+  </si>
+  <si>
+    <t>paola collao santelices</t>
+  </si>
+  <si>
+    <t>romina baeza illanes</t>
+  </si>
+  <si>
+    <t>marjorie del pino diaz</t>
+  </si>
+  <si>
+    <t>mariela araya cuevas</t>
+  </si>
+  <si>
+    <t>marcelo sepulveda oyanedel</t>
+  </si>
+  <si>
+    <t>marcela cristina novoa</t>
+  </si>
+  <si>
+    <t>cristobal labra bassa</t>
+  </si>
+  <si>
+    <t>gustavo arias campos</t>
+  </si>
+  <si>
+    <t>jozo vukelic arancibia</t>
+  </si>
+  <si>
+    <t>montserrat muñoz garate</t>
+  </si>
+  <si>
+    <t>elizabeth galleguillos medina</t>
+  </si>
+  <si>
+    <t>eduardo villalobos flores</t>
+  </si>
+  <si>
+    <t>tiare hernandez nieto</t>
+  </si>
+  <si>
+    <t>patricia leiva martinez</t>
+  </si>
+  <si>
+    <t>francisco ortiz seguel</t>
+  </si>
+  <si>
+    <t>erika martinez osorio</t>
+  </si>
+  <si>
+    <t>lisette roa aedo</t>
+  </si>
+  <si>
+    <t>andres diban dinamarca</t>
+  </si>
+  <si>
+    <t>carlos perez aguirre</t>
+  </si>
+  <si>
+    <t>cindy pardo contreras</t>
+  </si>
+  <si>
+    <t>gabriel zuñiga aravena</t>
+  </si>
+  <si>
+    <t>carla santana bustamante</t>
+  </si>
+  <si>
+    <t>carolina onofri salinas</t>
+  </si>
+  <si>
+    <t>ernesto balcazar gamboa</t>
+  </si>
+  <si>
+    <t>gustavo toro quintana</t>
+  </si>
+  <si>
+    <t>estefany ñanculef beltran</t>
+  </si>
+  <si>
+    <t>roxana riquelme tabach</t>
+  </si>
+  <si>
+    <t>claudio tapia diaz</t>
+  </si>
+  <si>
+    <t>maria jopia sepulveda</t>
+  </si>
+  <si>
+    <t>fidel contreras cespedes</t>
+  </si>
+  <si>
+    <t>max pardo ramirez</t>
+  </si>
+  <si>
+    <t>maximiliano morel nuñez</t>
+  </si>
+  <si>
+    <t>judith marin morales</t>
+  </si>
+  <si>
+    <t>iraci hassler jacob</t>
+  </si>
+  <si>
+    <t>dafne concha ferrando</t>
+  </si>
+  <si>
+    <t>marcela urquiza diaz</t>
+  </si>
+  <si>
+    <t>camila davagnino reyes</t>
+  </si>
+  <si>
+    <t>ana maria yañez varas</t>
+  </si>
+  <si>
+    <t>rosario carvajal araya</t>
+  </si>
+  <si>
+    <t>juan mena echeverria</t>
+  </si>
+  <si>
+    <t>yasna tapia cisternas</t>
+  </si>
+  <si>
+    <t>santiago mekis arnolds</t>
+  </si>
+  <si>
+    <t>paola melo cea</t>
+  </si>
+  <si>
+    <t>virginia palma erpel</t>
+  </si>
+  <si>
+    <t>carlos alvarez esteban</t>
+  </si>
+  <si>
+    <t>sebastian rosas guerrero</t>
+  </si>
+  <si>
+    <t>maria cecilia cartagena toro</t>
+  </si>
+  <si>
+    <t>ricardo bravo espinoza</t>
+  </si>
+  <si>
+    <t>purisima macaya vargas</t>
+  </si>
+  <si>
+    <t>fernando gonzalez martinez</t>
+  </si>
+  <si>
+    <t>andres llorente elexpuru</t>
+  </si>
+  <si>
+    <t>camila merino catalan</t>
+  </si>
+  <si>
+    <t>maximiliano del real</t>
+  </si>
+  <si>
+    <t>felipe ross</t>
+  </si>
+  <si>
+    <t>tomas kast</t>
+  </si>
+  <si>
+    <t>paula dominguez</t>
+  </si>
+  <si>
+    <t>macarena bezanilla</t>
+  </si>
+  <si>
+    <t>felipe irarrazaval</t>
+  </si>
+  <si>
+    <t>veronica del real</t>
+  </si>
+  <si>
+    <t>magdalena alessandri</t>
+  </si>
+  <si>
+    <t>jose antonio rivas villalobos</t>
+  </si>
+  <si>
+    <t>ximena bravo urrea</t>
+  </si>
+  <si>
+    <t>carlos benedetti reiman</t>
+  </si>
+  <si>
+    <t>mayerlin suarez silva</t>
+  </si>
+  <si>
+    <t>aldo aravena silva</t>
+  </si>
+  <si>
+    <t>luis rios melillan</t>
+  </si>
+  <si>
+    <t>carlos hidalgo figueroa</t>
+  </si>
+  <si>
+    <t>alvaro ortiz vera</t>
+  </si>
+  <si>
+    <t>olimpia riveros</t>
+  </si>
+  <si>
+    <t>daniel pacheco</t>
+  </si>
+  <si>
+    <t>eric riquelme</t>
+  </si>
+  <si>
+    <t>boris negrete</t>
+  </si>
+  <si>
+    <t>jaime monjes</t>
+  </si>
+  <si>
+    <t>claudia arriagada</t>
+  </si>
+  <si>
+    <t>andrea de la barra</t>
+  </si>
+  <si>
+    <t>nadia garrido</t>
+  </si>
+  <si>
+    <t>valentina pavez</t>
+  </si>
+  <si>
+    <t>emilio armstrong</t>
+  </si>
+  <si>
+    <t>miguel rivera morales</t>
+  </si>
+  <si>
+    <t>matias rifo valeria</t>
+  </si>
+  <si>
+    <t>romina medina calderon</t>
+  </si>
+  <si>
+    <t>wanda riquelme silva</t>
+  </si>
+  <si>
+    <t>rosemarie aranguiz perez</t>
+  </si>
+  <si>
+    <t>carlos ruminott barrera</t>
+  </si>
+  <si>
+    <t>osvaldo muñoz roa</t>
+  </si>
+  <si>
+    <t>jocelin jofre velasquez</t>
+  </si>
+  <si>
+    <t>miguel aravena rojas</t>
+  </si>
+  <si>
+    <t>jorge constanzo bravo</t>
+  </si>
+  <si>
+    <t>carlos candia jara</t>
+  </si>
+  <si>
+    <t>lorena veloso saez</t>
+  </si>
+  <si>
+    <t>juan carlos matus opazo</t>
+  </si>
+  <si>
+    <t>luis carriel perez</t>
+  </si>
+  <si>
+    <t>margarita galan douglas</t>
+  </si>
+  <si>
+    <t>gloria valenzuela calabrano</t>
+  </si>
+  <si>
+    <t>esteban krause salazar</t>
+  </si>
+  <si>
+    <t>patricio pinilla valencia</t>
+  </si>
+  <si>
+    <t>zenon jorquera figueroa</t>
+  </si>
+  <si>
+    <t>eduardo velasquez lagos</t>
+  </si>
+  <si>
+    <t>jose salcedo contreras</t>
+  </si>
+  <si>
+    <t>daniel badilla cofre</t>
+  </si>
+  <si>
+    <t>yasna quezada valdebenito</t>
+  </si>
+  <si>
+    <t>oriana offermann perello</t>
+  </si>
+  <si>
+    <t>luis medel figueroa</t>
+  </si>
+  <si>
+    <t>alejandro cano san martin</t>
+  </si>
+  <si>
+    <t>paola ortiz morales</t>
+  </si>
+  <si>
+    <t>carlos toloza soto</t>
+  </si>
+  <si>
+    <t>gustavo valdebenito venegas</t>
+  </si>
+  <si>
+    <t>luis vergara gonzalez</t>
+  </si>
+  <si>
+    <t>bernes toloza luna</t>
+  </si>
+  <si>
+    <t>samuel salazar chavez</t>
+  </si>
+  <si>
+    <t>gricela alarcon barnachea</t>
+  </si>
+  <si>
+    <t>ana villalobos avello</t>
+  </si>
+  <si>
+    <t>javier guiñez castro</t>
+  </si>
+  <si>
+    <t>paula opazo</t>
+  </si>
+  <si>
+    <t>jaime weinborn</t>
+  </si>
+  <si>
+    <t>cristina burgos</t>
+  </si>
+  <si>
+    <t>camila ortiz</t>
+  </si>
+  <si>
+    <t>edgar navarrete</t>
+  </si>
+  <si>
+    <t>rodrigo sutter</t>
+  </si>
+  <si>
+    <t>felipe vasquez</t>
+  </si>
+  <si>
+    <t>marcelo bersano</t>
+  </si>
+  <si>
+    <t>daniel salamanca perez</t>
+  </si>
+  <si>
+    <t>herminio pardo urrutia</t>
+  </si>
+  <si>
+    <t>herbal iturra escobar</t>
+  </si>
+  <si>
+    <t>claudio melo perez</t>
+  </si>
+  <si>
+    <t>jose sandoval castillo</t>
+  </si>
+  <si>
+    <t>hector quezada quezada</t>
+  </si>
+  <si>
+    <t>jeovanni pacheco flores</t>
+  </si>
+  <si>
+    <t>henry campos coa</t>
+  </si>
+  <si>
+    <t>valeria vargas diaz</t>
+  </si>
+  <si>
+    <t>roberto pino seguel</t>
+  </si>
+  <si>
+    <t>matias coloma arriagada</t>
+  </si>
+  <si>
+    <t>daniel gutierrez monsalve</t>
+  </si>
+  <si>
+    <t>elena retamal palma</t>
+  </si>
+  <si>
+    <t>feliz vera muñoz</t>
+  </si>
+  <si>
+    <t>victor palomino sandoval</t>
+  </si>
+  <si>
+    <t>magaly saavedra narvaez</t>
+  </si>
+  <si>
+    <t>enrique neira neira</t>
+  </si>
+  <si>
+    <t>beatriz sanhueza araya</t>
+  </si>
+  <si>
+    <t>mauricio jimenez trincado</t>
+  </si>
+  <si>
+    <t>nemer silva lopez</t>
+  </si>
+  <si>
+    <t>claudia farias salamanca</t>
+  </si>
+  <si>
+    <t>gustavo gonzales chamorro</t>
+  </si>
+  <si>
+    <t>jaime castro colimil</t>
+  </si>
+  <si>
+    <t>manuel macaya ramirez</t>
+  </si>
+  <si>
+    <t>jullyana bustos zapata</t>
+  </si>
+  <si>
+    <t>victor diaz lopez</t>
+  </si>
+  <si>
+    <t>clara riquelme moreno</t>
+  </si>
+  <si>
+    <t>jacqueline ponce vejar</t>
+  </si>
+  <si>
+    <t>carolina valenzuela muñoz</t>
+  </si>
+  <si>
+    <t>gisselle latorre ortiz</t>
+  </si>
+  <si>
+    <t>luis arias lopez</t>
+  </si>
+  <si>
+    <t>jose colihuil binimelis</t>
+  </si>
+  <si>
+    <t>luis garcia friz</t>
+  </si>
+  <si>
+    <t>ivette gutierrez seguel</t>
+  </si>
+  <si>
+    <t>viviana manquilef calfiquir</t>
+  </si>
+  <si>
+    <t>alex saez castillo</t>
+  </si>
+  <si>
+    <t>anselmo peiñan catrifol</t>
+  </si>
+  <si>
+    <t>raul schinefferli diaz</t>
+  </si>
+  <si>
+    <t>ricardo jaramillo galindo</t>
+  </si>
+  <si>
+    <t>mario perez rebolledo</t>
+  </si>
+  <si>
+    <t>gaston muñoz riego</t>
+  </si>
+  <si>
+    <t>michel hauri madariaga</t>
+  </si>
+  <si>
+    <t>aurelio llanos espinoza</t>
+  </si>
+  <si>
+    <t>german ortiz erices</t>
+  </si>
+  <si>
+    <t>cesar sepulveda huerta</t>
+  </si>
+  <si>
+    <t>oscar vergara tapia</t>
+  </si>
+  <si>
+    <t>ivan quinchelao gonzalez</t>
+  </si>
+  <si>
+    <t>maria luisa parra ortiz</t>
+  </si>
+  <si>
+    <t>daniel lincovil huencho</t>
+  </si>
+  <si>
+    <t>alfredo llafquen huilipan</t>
+  </si>
+  <si>
+    <t>myriam canario rivas</t>
+  </si>
+  <si>
+    <t>mario gonzalez rebolledo</t>
+  </si>
+  <si>
+    <t>marcela esparza saavedra</t>
+  </si>
+  <si>
+    <t>evelyn mora gallegos</t>
+  </si>
+  <si>
+    <t>ines del carmen araneda villagran</t>
+  </si>
+  <si>
+    <t>juan francisco nahuelpi ramirez</t>
+  </si>
+  <si>
+    <t>pedro vergara manriquez</t>
+  </si>
+  <si>
+    <t>miguel santana carmona</t>
+  </si>
+  <si>
+    <t>jacqueline romero inzunza</t>
+  </si>
+  <si>
+    <t>pedro lizama diaz</t>
+  </si>
+  <si>
+    <t>felipe barril riquelme</t>
+  </si>
+  <si>
+    <t>valeria brun marican</t>
+  </si>
+  <si>
+    <t>roxana san martin bilbao</t>
+  </si>
+  <si>
+    <t>amelia riquelme valenzuela</t>
+  </si>
+  <si>
+    <t>lorenzo silva cariman</t>
+  </si>
+  <si>
+    <t>carlos barra matamala</t>
+  </si>
+  <si>
+    <t>cristian hernandez schmidt</t>
+  </si>
+  <si>
+    <t>ricardo cortes ossandon</t>
+  </si>
+  <si>
+    <t>daniela garcia mintz</t>
+  </si>
+  <si>
+    <t>armin aviles arias</t>
+  </si>
+  <si>
+    <t>claudio cortez guarda</t>
+  </si>
+  <si>
+    <t>veronica castillo ojeda</t>
+  </si>
+  <si>
+    <t>alberto musre contreras</t>
+  </si>
+  <si>
+    <t>natalia pedreros bascuñan</t>
+  </si>
+  <si>
+    <t>enrique morales velasquez</t>
+  </si>
+  <si>
+    <t>nancy puentes troncoso</t>
+  </si>
+  <si>
+    <t>andrea reyes garces</t>
+  </si>
+  <si>
+    <t>cristina del carmen villagra venegas</t>
+  </si>
+  <si>
+    <t>juan carlos reinao marilao</t>
+  </si>
+  <si>
+    <t>roberto neira aburto</t>
+  </si>
+  <si>
+    <t>esteban barriga rosales</t>
+  </si>
+  <si>
+    <t>alejandro bizama tiznado</t>
+  </si>
+  <si>
+    <t>fredy cartes valenzuela</t>
+  </si>
+  <si>
+    <t>viviana diaz carvallo</t>
+  </si>
+  <si>
+    <t>claudia peñailillo guzman</t>
+  </si>
+  <si>
+    <t>carlos sepulveda vergara</t>
+  </si>
+  <si>
+    <t>bruno hauenstein araya</t>
+  </si>
+  <si>
+    <t>juan aceiton vasquez</t>
+  </si>
+  <si>
+    <t>soledad gallardo vasquez</t>
+  </si>
+  <si>
+    <t>marco antonio vasquez ulloa</t>
+  </si>
+  <si>
+    <t>javier jaramillo soto</t>
+  </si>
+  <si>
+    <t>henry canales aguilera</t>
+  </si>
+  <si>
+    <t>denisse dufey cerda</t>
+  </si>
+  <si>
+    <t>luis vidal ibañez</t>
+  </si>
+  <si>
+    <t>carlos romero urrutia</t>
+  </si>
+  <si>
+    <t>patricio garrido saavedra</t>
+  </si>
+  <si>
+    <t>paulo miranda araneda</t>
+  </si>
+  <si>
+    <t>katherinne migueles</t>
+  </si>
+  <si>
+    <t>agustina salazar</t>
+  </si>
+  <si>
+    <t>marcelo perez</t>
+  </si>
+  <si>
+    <t>victor rosas</t>
+  </si>
+  <si>
+    <t>pietro jaramillo</t>
+  </si>
+  <si>
+    <t>cesar mercado</t>
+  </si>
+  <si>
+    <t>arnoldo burgos</t>
+  </si>
+  <si>
+    <t>german vergara lagos</t>
+  </si>
+  <si>
+    <t>katalina gudenschwager basso</t>
+  </si>
+  <si>
+    <t>jaime beltran saez</t>
+  </si>
+  <si>
+    <t>victor duran rivera</t>
+  </si>
+  <si>
+    <t>raul landini ebner</t>
+  </si>
+  <si>
+    <t>sergio mora hernandez</t>
+  </si>
+  <si>
+    <t>hermes medina rodriguez</t>
+  </si>
+  <si>
+    <t>julio anativia zamora</t>
+  </si>
+  <si>
+    <t>daniela dresdner vicencio</t>
+  </si>
+  <si>
+    <t>marcela tiznado fernandez</t>
+  </si>
+  <si>
+    <t>brenda vigueras matamala</t>
+  </si>
+  <si>
+    <t>christopher gengnagel carrasco</t>
+  </si>
+  <si>
+    <t>leonidas peña henriquez</t>
+  </si>
+  <si>
+    <t>ivania rojas castillo</t>
+  </si>
+  <si>
+    <t>eduardo borgoño bustos</t>
+  </si>
+  <si>
+    <t>enrique krause lobos</t>
+  </si>
+  <si>
+    <t>robert cordova bustos</t>
+  </si>
+  <si>
+    <t>teresa stark ortega</t>
+  </si>
+  <si>
+    <t>patricio badilla cofre</t>
+  </si>
+  <si>
+    <t>adriana delgado careaga</t>
+  </si>
+  <si>
+    <t>diana gonzalez catalan</t>
+  </si>
+  <si>
+    <t>rodrigo vera riquelme</t>
+  </si>
+  <si>
+    <t>alicia yañez soto</t>
+  </si>
+  <si>
+    <t>camila arriagada gonzalez</t>
+  </si>
+  <si>
+    <t>gabriel torres hermosilla</t>
+  </si>
+  <si>
+    <t>jacqueline burgos rios</t>
+  </si>
+  <si>
+    <t>ana araneda gomez</t>
+  </si>
+  <si>
+    <t>james argo chavez</t>
+  </si>
+  <si>
+    <t>andres parra sandoval</t>
+  </si>
+  <si>
+    <t>javier sandoval ojeda</t>
+  </si>
+  <si>
+    <t>yanina contreras alvarez</t>
+  </si>
+  <si>
+    <t>piero blas muñoz</t>
+  </si>
+  <si>
+    <t>javiera vargas muñoz</t>
+  </si>
+  <si>
+    <t>jaime vasquez castillo</t>
+  </si>
+  <si>
+    <t>francisco reyes aguayo</t>
+  </si>
+  <si>
+    <t>tania concha hidalgo</t>
+  </si>
+  <si>
+    <t>anselmo peña rodriguez</t>
+  </si>
+  <si>
+    <t>maria candelaria acevedo</t>
+  </si>
+  <si>
+    <t>eric aedo</t>
+  </si>
+  <si>
+    <t>roberto arroyo</t>
+  </si>
+  <si>
+    <t>sergio bobadilla</t>
+  </si>
+  <si>
+    <t>felix gonzalez</t>
+  </si>
+  <si>
+    <t>karen medina</t>
+  </si>
+  <si>
+    <t>francesca muñoz</t>
+  </si>
+  <si>
+    <t>marlene perez</t>
+  </si>
+  <si>
+    <t>joanna perez</t>
+  </si>
+  <si>
+    <t>leonidas romero</t>
+  </si>
+  <si>
+    <t>clara sagardia</t>
+  </si>
+  <si>
+    <t>cristobal urruticoechea</t>
+  </si>
+  <si>
+    <t>flor weisse</t>
+  </si>
+  <si>
+    <t>enrique van rysselberghe herrera</t>
+  </si>
+  <si>
+    <t>gaston saavedra chandia</t>
+  </si>
+  <si>
+    <t>sebastian keitel bianchi</t>
+  </si>
+  <si>
+    <t>rocio cantuarias</t>
+  </si>
+  <si>
+    <t>luciano silva</t>
+  </si>
+  <si>
+    <t>amaya alvez</t>
+  </si>
+  <si>
+    <t>andres cruz</t>
+  </si>
+  <si>
+    <t>tammy pustilnick</t>
+  </si>
+  <si>
+    <t>bastian labbe</t>
+  </si>
+  <si>
+    <t>rossana vidal</t>
+  </si>
+  <si>
+    <t>paulina veloso</t>
+  </si>
+  <si>
+    <t>vanessa hoppe</t>
+  </si>
+  <si>
+    <t>luis barceló</t>
+  </si>
+  <si>
+    <t>javier fuchslocher</t>
+  </si>
+  <si>
+    <t> luciano rivas stepke</t>
+  </si>
+  <si>
+    <t>raul allard soto</t>
+  </si>
+  <si>
+    <t>manuel aravena saavedra</t>
+  </si>
+  <si>
+    <t>leonardo astete melivilu</t>
+  </si>
+  <si>
+    <t>marcelo carrasco carrasco</t>
+  </si>
+  <si>
+    <t>miguel contreras maldonado</t>
+  </si>
+  <si>
+    <t>federico figueroa lizama</t>
+  </si>
+  <si>
+    <t>essio guidotti vallejos</t>
+  </si>
+  <si>
+    <t>maria elizabeth gutierrez saavedra</t>
+  </si>
+  <si>
+    <t>eduardo heranandez schmidt</t>
+  </si>
+  <si>
+    <t>ricardo herrera floody</t>
+  </si>
+  <si>
+    <t>miguel jaramillo salazar</t>
+  </si>
+  <si>
+    <t>jorge luchsinger mackay</t>
+  </si>
+  <si>
+    <t>felipe martinez reyes</t>
+  </si>
+  <si>
+    <t>guilda mendoza vasquez</t>
+  </si>
+  <si>
+    <t>hugo monsalves castillo</t>
+  </si>
+  <si>
+    <t>cristian neira martinez</t>
+  </si>
+  <si>
+    <t>cristian pacheco aguilera</t>
+  </si>
+  <si>
+    <t>monica rodriguez rodriguez</t>
+  </si>
+  <si>
+    <t>genoveva sepulveda venegas</t>
+  </si>
+  <si>
+    <t>ana maria soto cea</t>
+  </si>
+  <si>
+    <t>jose zamora silva</t>
+  </si>
+  <si>
+    <t>miguel angel becker</t>
+  </si>
+  <si>
+    <t>juan carlos beltran</t>
+  </si>
+  <si>
+    <t>andres jouannet</t>
+  </si>
+  <si>
+    <t>henry leal</t>
+  </si>
+  <si>
+    <t>miguel mellado</t>
+  </si>
+  <si>
+    <t>gloria naveillan</t>
+  </si>
+  <si>
+    <t>ericka ñanco</t>
+  </si>
+  <si>
+    <t>mauricio ojeda</t>
+  </si>
+  <si>
+    <t>jorge rathgeb</t>
+  </si>
+  <si>
+    <t>jorge saffirio</t>
+  </si>
+  <si>
+    <t>stephan schubert</t>
+  </si>
+  <si>
+    <t>carmen gloria aravena acuña</t>
+  </si>
+  <si>
+    <t>jose garcia ruminot</t>
+  </si>
+  <si>
+    <t>francisco huenchumilla jaramillo</t>
+  </si>
+  <si>
+    <t>felipe kast sommerhoff</t>
+  </si>
+  <si>
+    <t>jaime quintana leal</t>
+  </si>
+  <si>
+    <t>ruth hurtado olave</t>
+  </si>
+  <si>
+    <t>eduardo cretton rebolledo</t>
+  </si>
+  <si>
+    <t>fuad chahih valenzuela</t>
+  </si>
+  <si>
+    <t>lorena cespedes</t>
+  </si>
+  <si>
+    <t>luis mayol</t>
+  </si>
+  <si>
+    <t>helmuth martinez</t>
+  </si>
+  <si>
+    <t>eduardo castillo</t>
+  </si>
+  <si>
+    <t>angelica tepper</t>
+  </si>
+  <si>
+    <t>manuela royo</t>
   </si>
 </sst>
 </file>
@@ -1554,10 +2748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G229"/>
+  <dimension ref="A1:G441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="A180" sqref="A180:XFD180"/>
+    <sheetView topLeftCell="A425" workbookViewId="0">
+      <selection activeCell="A356" sqref="A356:A418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4068,444 +5262,3616 @@
       <c r="B179" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C179" s="3"/>
-      <c r="D179" s="6"/>
+      <c r="C179" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="6"/>
+      <c r="B180" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="6"/>
+      <c r="B181" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="6"/>
+      <c r="B182" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
-      <c r="D183" s="6"/>
+      <c r="B183" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="6"/>
+      <c r="B184" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="6"/>
+      <c r="B185" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="6"/>
+      <c r="B186" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A187" s="3"/>
       <c r="B187" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C187" s="3"/>
-      <c r="D187" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A188" s="3"/>
       <c r="B188" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C188" s="3"/>
-      <c r="D188" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C189" s="3"/>
-      <c r="D189" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C190" s="3"/>
-      <c r="D190" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C191" s="3"/>
-      <c r="D191" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C192" s="3"/>
-      <c r="D192" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C193" s="3"/>
-      <c r="D193" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C194" s="3"/>
-      <c r="D194" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C195" s="3"/>
-      <c r="D195" s="6"/>
-    </row>
-    <row r="196" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C196" s="3"/>
-      <c r="D196" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C197" s="3"/>
-      <c r="D197" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C198" s="3"/>
-      <c r="D198" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="A199" s="3"/>
       <c r="B199" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C199" s="3"/>
-      <c r="D199" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="A200" s="3"/>
       <c r="B200" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C200" s="3"/>
-      <c r="D200" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="A201" s="3"/>
       <c r="B201" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C201" s="3"/>
-      <c r="D201" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="A202" s="3"/>
       <c r="B202" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C202" s="3"/>
-      <c r="D202" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="A203" s="3"/>
       <c r="B203" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C203" s="3"/>
-      <c r="D203" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="A204" s="3"/>
       <c r="B204" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C204" s="3"/>
-      <c r="D204" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="A205" s="3"/>
       <c r="B205" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C205" s="3"/>
-      <c r="D205" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C206" s="3"/>
-      <c r="D206" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C207" s="3"/>
-      <c r="D207" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C208" s="3"/>
-      <c r="D208" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C209" s="3"/>
-      <c r="D209" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C210" s="3"/>
-      <c r="D210" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C211" s="3"/>
-      <c r="D211" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C212" s="3"/>
-      <c r="D212" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C213" s="3"/>
-      <c r="D213" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C214" s="3"/>
-      <c r="D214" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C215" s="3"/>
-      <c r="D215" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C216" s="3"/>
-      <c r="D216" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C217" s="3"/>
-      <c r="D217" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C218" s="3"/>
-      <c r="D218" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C219" s="3"/>
-      <c r="D219" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B220" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D250" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D255" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D256" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D259" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D266" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D268" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D269" s="6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D270" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D271" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D272" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D273" s="6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D274" s="6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D276" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D278" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D279" s="6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D280" s="6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D284" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D285" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D286" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D287" s="6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D288" s="6" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D289" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D290" s="6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D291" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D292" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D293" s="6" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D295" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D296" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D297" s="6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D298" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D299" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D300" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D301" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D302" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D304" s="6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D305" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D306" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D307" s="6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D308" s="6" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D309" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D310" s="6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D312" s="6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D314" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D315" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D317" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D318" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D319" s="6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D320" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D321" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D322" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D323" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D324" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D325" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D326" s="6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D327" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D328" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D329" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D330" s="6" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D331" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D332" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D333" s="6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D334" s="6" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D335" s="6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D336" s="6" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D337" s="6" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D338" s="6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D339" s="6" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D340" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D341" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="D342" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="D343" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="D344" s="6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="D345" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="D346" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="D347" s="6" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D348" s="6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D349" s="6" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D350" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D351" s="6" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D352" s="6" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D353" s="6" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D354" s="6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D355" s="6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D356" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D357" s="6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D358" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D359" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D360" s="6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D361" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D362" s="6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D363" s="6" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D364" s="6" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D365" s="6" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D366" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D367" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D368" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D369" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D370" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D371" s="6" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D372" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D373" s="6" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D374" s="6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D375" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D376" s="6" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D377" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D378" s="6" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D379" s="6" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="D380" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="D381" s="6" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="D382" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="D383" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="D384" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="D385" s="6" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D386" s="6" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D387" s="6" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D388" s="6" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D389" s="6" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D390" s="6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D391" s="6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="D392" s="6" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="D393" s="6" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="D394" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="D395" s="6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="D396" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="D397" s="6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="D398" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="D399" s="6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="D400" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="D401" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="D402" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="D403" s="6" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="D404" s="6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="D405" s="6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="D406" s="6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="D407" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="D408" s="6" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="D409" s="6" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D410" s="6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D411" s="6" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D412" s="6" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D413" s="6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D414" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D415" s="6" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D416" s="6" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D417" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D418" s="6" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D419" s="6" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="D420" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="D421" s="6" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="D422" s="6" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="D423" s="6" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="D424" s="6" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="D425" s="6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D426" s="6" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D427" s="6" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D428" s="6" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D429" s="6" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D430" s="6" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D431" s="6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B432" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C220" s="3"/>
-      <c r="D220" s="6"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="3"/>
-      <c r="B221" s="3"/>
-      <c r="C221" s="3"/>
-      <c r="D221" s="6"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="3"/>
-      <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
-      <c r="D222" s="6"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="3"/>
-      <c r="B223" s="3"/>
-      <c r="C223" s="3"/>
-      <c r="D223" s="6"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="3"/>
-      <c r="B224" s="3"/>
-      <c r="C224" s="3"/>
-      <c r="D224" s="6"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="3"/>
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-      <c r="D225" s="6"/>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="3"/>
-      <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
-      <c r="D226" s="6"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="3"/>
-      <c r="B227" s="3"/>
-      <c r="C227" s="3"/>
-      <c r="D227" s="6"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="3"/>
-      <c r="B228" s="3"/>
-      <c r="C228" s="3"/>
-      <c r="D228" s="6"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="3"/>
-      <c r="B229" s="3"/>
-      <c r="C229" s="3"/>
-      <c r="D229" s="6"/>
+      <c r="C432" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D432" s="6" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D433" s="6" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D434" s="6" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D435" s="6" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D436" s="6" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D437" s="6" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" s="3"/>
+      <c r="B438" s="3"/>
+      <c r="C438" s="3"/>
+      <c r="D438" s="6"/>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" s="3"/>
+      <c r="B439" s="3"/>
+      <c r="C439" s="3"/>
+      <c r="D439" s="6"/>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" s="3"/>
+      <c r="B440" s="3"/>
+      <c r="C440" s="3"/>
+      <c r="D440" s="6"/>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" s="3"/>
+      <c r="B441" s="3"/>
+      <c r="C441" s="3"/>
+      <c r="D441" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4515,10 +8881,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AAF411-BB21-4A2F-A2AC-99DF4901AC67}">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E81" sqref="E80:E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4526,7 +8892,9 @@
     <col min="1" max="1" width="15.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="6" customWidth="1"/>
     <col min="3" max="4" width="25.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -4545,10 +8913,10 @@
       <c r="E1" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4568,10 +8936,10 @@
       <c r="E2" t="s">
         <v>111</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4591,10 +8959,10 @@
       <c r="E3" t="s">
         <v>112</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4614,10 +8982,10 @@
       <c r="E4" t="s">
         <v>113</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="4" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4637,10 +9005,10 @@
       <c r="E5" t="s">
         <v>114</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4660,10 +9028,10 @@
       <c r="E6" t="s">
         <v>115</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4683,7 +9051,7 @@
       <c r="E7" t="s">
         <v>116</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4703,7 +9071,7 @@
       <c r="E8" t="s">
         <v>117</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="4" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4723,7 +9091,7 @@
       <c r="E9" t="s">
         <v>118</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="4" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4743,7 +9111,7 @@
       <c r="E10" t="s">
         <v>119</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4763,7 +9131,7 @@
       <c r="E11" t="s">
         <v>120</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="4" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4783,7 +9151,7 @@
       <c r="E12" t="s">
         <v>121</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="4" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4803,7 +9171,7 @@
       <c r="E13" t="s">
         <v>122</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="4" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4823,7 +9191,7 @@
       <c r="E14" t="s">
         <v>123</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="4" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4843,7 +9211,7 @@
       <c r="E15" t="s">
         <v>124</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="4" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4863,7 +9231,7 @@
       <c r="E16" t="s">
         <v>125</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="4" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4883,7 +9251,7 @@
       <c r="E17" t="s">
         <v>126</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4903,7 +9271,7 @@
       <c r="E18" t="s">
         <v>127</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="4" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4923,7 +9291,7 @@
       <c r="E19" t="s">
         <v>128</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="4" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4943,7 +9311,7 @@
       <c r="E20" t="s">
         <v>129</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4963,7 +9331,7 @@
       <c r="E21" t="s">
         <v>130</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4983,7 +9351,7 @@
       <c r="E22" t="s">
         <v>131</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5003,7 +9371,7 @@
       <c r="E23" t="s">
         <v>132</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="4" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5023,7 +9391,7 @@
       <c r="E24" t="s">
         <v>133</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="4" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5043,7 +9411,7 @@
       <c r="E25" t="s">
         <v>134</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -5063,7 +9431,7 @@
       <c r="E26" t="s">
         <v>135</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5083,7 +9451,7 @@
       <c r="E27" t="s">
         <v>136</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5103,7 +9471,7 @@
       <c r="E28" t="s">
         <v>137</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5123,7 +9491,7 @@
       <c r="E29" t="s">
         <v>138</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5143,7 +9511,7 @@
       <c r="E30" t="s">
         <v>139</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="4" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5163,7 +9531,7 @@
       <c r="E31" t="s">
         <v>140</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="4" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5183,7 +9551,7 @@
       <c r="E32" t="s">
         <v>141</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="4" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5203,7 +9571,7 @@
       <c r="E33" t="s">
         <v>142</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="4" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5221,7 +9589,7 @@
       <c r="E34" t="s">
         <v>143</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5239,7 +9607,7 @@
       <c r="E35" t="s">
         <v>144</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5257,7 +9625,7 @@
       <c r="E36" t="s">
         <v>145</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="4" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5275,7 +9643,7 @@
       <c r="E37" t="s">
         <v>146</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5293,7 +9661,7 @@
       <c r="E38" t="s">
         <v>147</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="4" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5311,7 +9679,7 @@
       <c r="E39" t="s">
         <v>148</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="4" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5329,7 +9697,7 @@
       <c r="E40" t="s">
         <v>149</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="4" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5347,7 +9715,7 @@
       <c r="E41" t="s">
         <v>150</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5365,7 +9733,7 @@
       <c r="E42" t="s">
         <v>151</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="4" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5448,155 +9816,832 @@
       <c r="A48" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="E48" t="s">
+        <v>715</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="E49" t="s">
+        <v>716</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="E50" t="s">
+        <v>717</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="E51" t="s">
+        <v>718</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="E52" t="s">
+        <v>719</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="E53" t="s">
+        <v>720</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="E54" t="s">
+        <v>721</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="E55" t="s">
+        <v>722</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="E56" t="s">
+        <v>723</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="E57" t="s">
+        <v>724</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="E58" t="s">
+        <v>725</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="E59" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="E60" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="E76" t="s">
+        <v>764</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="E77" t="s">
+        <v>765</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="E78" t="s">
+        <v>766</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="E79" t="s">
+        <v>767</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="E80" t="s">
+        <v>768</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="E81" t="s">
+        <v>769</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="E82" t="s">
+        <v>770</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="E83" t="s">
+        <v>771</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="E84" t="s">
+        <v>772</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E85" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="E86" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>763</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/info.comunas.xlsx
+++ b/info.comunas.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Villagran\Desktop\scribs\datavoz\barometros\pretest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40DFF44-0391-4D7F-A510-77D48A99E6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A468CD-5B42-40E1-B2F2-DD983C007048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5505" yWindow="1365" windowWidth="12105" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comuna" sheetId="1" r:id="rId1"/>
     <sheet name="region" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">comuna!$A$1:$D$437</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">region!$A$1:$G$95</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="789">
   <si>
     <t>region</t>
   </si>
@@ -2442,18 +2446,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2463,11 +2466,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2748,10 +2750,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G441"/>
   <sheetViews>
-    <sheetView topLeftCell="A425" workbookViewId="0">
-      <selection activeCell="A356" sqref="A356:A418"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2759,1537 +2762,1537 @@
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>195</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="6" t="s">
+    <row r="15" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="6" t="s">
+    <row r="17" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="6" t="s">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="6" t="s">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="6" t="s">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="6" t="s">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="6" t="s">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="6" t="s">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="6" t="s">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="6" t="s">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="6" t="s">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="6" t="s">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="6" t="s">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="6" t="s">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="6" t="s">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="6" t="s">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="6" t="s">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="6" t="s">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="6" t="s">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="6" t="s">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="6" t="s">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="6" t="s">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="6" t="s">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="6" t="s">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="6" t="s">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="6" t="s">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="6" t="s">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="6" t="s">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="6" t="s">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="6" t="s">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="6" t="s">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="6" t="s">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B50" s="6" t="s">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51" s="6" t="s">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52" s="6" t="s">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B53" s="6" t="s">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54" s="6" t="s">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B55" s="6" t="s">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B56" s="6" t="s">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B57" s="6" t="s">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B58" s="6" t="s">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B59" s="6" t="s">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" s="6" t="s">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B61" s="6" t="s">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B62" s="6" t="s">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B63" s="6" t="s">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B64" s="6" t="s">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B65" s="6" t="s">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B66" s="6" t="s">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B67" s="6" t="s">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B68" s="6" t="s">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B69" s="6" t="s">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B70" s="6" t="s">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B71" s="6" t="s">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B72" s="6" t="s">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B73" s="6" t="s">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B74" s="6" t="s">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B75" s="6" t="s">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B76" s="6" t="s">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B77" s="6" t="s">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B78" s="6" t="s">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B79" s="6" t="s">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B80" s="6" t="s">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D80" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B81" s="6" t="s">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B82" s="6" t="s">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B83" s="6" t="s">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B84" s="6" t="s">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B85" s="6" t="s">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D85" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B86" s="6" t="s">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B87" s="6" t="s">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B88" s="6" t="s">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B89" s="6" t="s">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B90" s="6" t="s">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B91" s="6" t="s">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B92" s="6" t="s">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B93" s="6" t="s">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B94" s="6" t="s">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B95" s="6" t="s">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B96" s="6" t="s">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B97" s="6" t="s">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B98" s="6" t="s">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B99" s="6" t="s">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D99" s="5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B100" s="6" t="s">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B101" s="6" t="s">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B102" s="6" t="s">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B103" s="6" t="s">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C103" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D103" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B104" s="6" t="s">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" s="5" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B105" s="6" t="s">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B106" s="6" t="s">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D106" s="5" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B107" s="6" t="s">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D107" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B108" s="6" t="s">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D108" s="5" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B109" s="6" t="s">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C109" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="D109" s="5" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>41</v>
       </c>
@@ -4299,11 +4302,11 @@
       <c r="C110" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D110" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>41</v>
       </c>
@@ -4313,11 +4316,11 @@
       <c r="C111" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="D111" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>41</v>
       </c>
@@ -4327,11 +4330,11 @@
       <c r="C112" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D112" s="5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>41</v>
       </c>
@@ -4341,11 +4344,11 @@
       <c r="C113" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D113" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>41</v>
       </c>
@@ -4355,11 +4358,11 @@
       <c r="C114" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D114" s="5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>41</v>
       </c>
@@ -4369,11 +4372,11 @@
       <c r="C115" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D115" s="6" t="s">
+      <c r="D115" s="5" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>41</v>
       </c>
@@ -4383,11 +4386,11 @@
       <c r="C116" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="D116" s="5" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>41</v>
       </c>
@@ -4397,11 +4400,11 @@
       <c r="C117" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D117" s="6" t="s">
+      <c r="D117" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>41</v>
       </c>
@@ -4411,11 +4414,11 @@
       <c r="C118" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="D118" s="5" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>41</v>
       </c>
@@ -4425,11 +4428,11 @@
       <c r="C119" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D119" s="6" t="s">
+      <c r="D119" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>41</v>
       </c>
@@ -4439,11 +4442,11 @@
       <c r="C120" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D120" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>41</v>
       </c>
@@ -4453,11 +4456,11 @@
       <c r="C121" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="D121" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>41</v>
       </c>
@@ -4467,11 +4470,11 @@
       <c r="C122" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D122" s="6" t="s">
+      <c r="D122" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>41</v>
       </c>
@@ -4481,11 +4484,11 @@
       <c r="C123" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D123" s="6" t="s">
+      <c r="D123" s="5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>41</v>
       </c>
@@ -4495,11 +4498,11 @@
       <c r="C124" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="D124" s="5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>41</v>
       </c>
@@ -4509,11 +4512,11 @@
       <c r="C125" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D125" s="6" t="s">
+      <c r="D125" s="5" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>41</v>
       </c>
@@ -4523,11 +4526,11 @@
       <c r="C126" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D126" s="6" t="s">
+      <c r="D126" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>41</v>
       </c>
@@ -4537,11 +4540,11 @@
       <c r="C127" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D127" s="6" t="s">
+      <c r="D127" s="5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>41</v>
       </c>
@@ -4551,11 +4554,11 @@
       <c r="C128" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D128" s="6" t="s">
+      <c r="D128" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>41</v>
       </c>
@@ -4565,11 +4568,11 @@
       <c r="C129" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D129" s="6" t="s">
+      <c r="D129" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>41</v>
       </c>
@@ -4579,11 +4582,11 @@
       <c r="C130" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D130" s="6" t="s">
+      <c r="D130" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>41</v>
       </c>
@@ -4593,11 +4596,11 @@
       <c r="C131" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D131" s="6" t="s">
+      <c r="D131" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>41</v>
       </c>
@@ -4607,11 +4610,11 @@
       <c r="C132" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D132" s="6" t="s">
+      <c r="D132" s="5" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>41</v>
       </c>
@@ -4621,11 +4624,11 @@
       <c r="C133" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D133" s="6" t="s">
+      <c r="D133" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>41</v>
       </c>
@@ -4635,11 +4638,11 @@
       <c r="C134" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D134" s="6" t="s">
+      <c r="D134" s="5" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>41</v>
       </c>
@@ -4649,11 +4652,11 @@
       <c r="C135" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D135" s="6" t="s">
+      <c r="D135" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>41</v>
       </c>
@@ -4663,11 +4666,11 @@
       <c r="C136" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D136" s="6" t="s">
+      <c r="D136" s="5" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>41</v>
       </c>
@@ -4677,11 +4680,11 @@
       <c r="C137" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D137" s="6" t="s">
+      <c r="D137" s="5" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>41</v>
       </c>
@@ -4691,11 +4694,11 @@
       <c r="C138" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D138" s="6" t="s">
+      <c r="D138" s="5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>41</v>
       </c>
@@ -4705,11 +4708,11 @@
       <c r="C139" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D139" s="6" t="s">
+      <c r="D139" s="5" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>41</v>
       </c>
@@ -4719,11 +4722,11 @@
       <c r="C140" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D140" s="6" t="s">
+      <c r="D140" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>41</v>
       </c>
@@ -4733,11 +4736,11 @@
       <c r="C141" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D141" s="6" t="s">
+      <c r="D141" s="5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>41</v>
       </c>
@@ -4747,11 +4750,11 @@
       <c r="C142" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D142" s="6" t="s">
+      <c r="D142" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>41</v>
       </c>
@@ -4761,11 +4764,11 @@
       <c r="C143" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D143" s="6" t="s">
+      <c r="D143" s="5" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>41</v>
       </c>
@@ -4775,11 +4778,11 @@
       <c r="C144" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D144" s="6" t="s">
+      <c r="D144" s="5" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>41</v>
       </c>
@@ -4789,11 +4792,11 @@
       <c r="C145" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D145" s="6" t="s">
+      <c r="D145" s="5" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>41</v>
       </c>
@@ -4803,11 +4806,11 @@
       <c r="C146" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D146" s="6" t="s">
+      <c r="D146" s="5" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>41</v>
       </c>
@@ -4817,11 +4820,11 @@
       <c r="C147" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D147" s="6" t="s">
+      <c r="D147" s="5" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>41</v>
       </c>
@@ -4831,11 +4834,11 @@
       <c r="C148" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D148" s="6" t="s">
+      <c r="D148" s="5" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>41</v>
       </c>
@@ -4845,11 +4848,11 @@
       <c r="C149" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D149" s="6" t="s">
+      <c r="D149" s="5" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>41</v>
       </c>
@@ -4859,11 +4862,11 @@
       <c r="C150" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D150" s="6" t="s">
+      <c r="D150" s="5" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>41</v>
       </c>
@@ -4873,11 +4876,11 @@
       <c r="C151" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="D151" s="6" t="s">
+      <c r="D151" s="5" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>41</v>
       </c>
@@ -4887,11 +4890,11 @@
       <c r="C152" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="D152" s="6" t="s">
+      <c r="D152" s="5" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>41</v>
       </c>
@@ -4901,11 +4904,11 @@
       <c r="C153" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="D153" s="6" t="s">
+      <c r="D153" s="5" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>41</v>
       </c>
@@ -4915,11 +4918,11 @@
       <c r="C154" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="D154" s="6" t="s">
+      <c r="D154" s="5" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>41</v>
       </c>
@@ -4929,11 +4932,11 @@
       <c r="C155" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="D155" s="6" t="s">
+      <c r="D155" s="5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>41</v>
       </c>
@@ -4943,11 +4946,11 @@
       <c r="C156" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="D156" s="6" t="s">
+      <c r="D156" s="5" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>41</v>
       </c>
@@ -4957,11 +4960,11 @@
       <c r="C157" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="D157" s="6" t="s">
+      <c r="D157" s="5" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>41</v>
       </c>
@@ -4971,11 +4974,11 @@
       <c r="C158" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="D158" s="6" t="s">
+      <c r="D158" s="5" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>41</v>
       </c>
@@ -4985,11 +4988,11 @@
       <c r="C159" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D159" s="6" t="s">
+      <c r="D159" s="5" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>41</v>
       </c>
@@ -4999,11 +5002,11 @@
       <c r="C160" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D160" s="6" t="s">
+      <c r="D160" s="5" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>41</v>
       </c>
@@ -5013,11 +5016,11 @@
       <c r="C161" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D161" s="6" t="s">
+      <c r="D161" s="5" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>41</v>
       </c>
@@ -5027,11 +5030,11 @@
       <c r="C162" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D162" s="6" t="s">
+      <c r="D162" s="5" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>41</v>
       </c>
@@ -5041,11 +5044,11 @@
       <c r="C163" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D163" s="6" t="s">
+      <c r="D163" s="5" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>41</v>
       </c>
@@ -5055,11 +5058,11 @@
       <c r="C164" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D164" s="6" t="s">
+      <c r="D164" s="5" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>41</v>
       </c>
@@ -5069,11 +5072,11 @@
       <c r="C165" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D165" s="6" t="s">
+      <c r="D165" s="5" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>41</v>
       </c>
@@ -5083,11 +5086,11 @@
       <c r="C166" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D166" s="6" t="s">
+      <c r="D166" s="5" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>41</v>
       </c>
@@ -5097,11 +5100,11 @@
       <c r="C167" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D167" s="6" t="s">
+      <c r="D167" s="5" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>41</v>
       </c>
@@ -5111,11 +5114,11 @@
       <c r="C168" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D168" s="6" t="s">
+      <c r="D168" s="5" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>41</v>
       </c>
@@ -5125,11 +5128,11 @@
       <c r="C169" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D169" s="6" t="s">
+      <c r="D169" s="5" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>41</v>
       </c>
@@ -5139,11 +5142,11 @@
       <c r="C170" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D170" s="6" t="s">
+      <c r="D170" s="5" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>41</v>
       </c>
@@ -5153,11 +5156,11 @@
       <c r="C171" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D171" s="6" t="s">
+      <c r="D171" s="5" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>41</v>
       </c>
@@ -5167,11 +5170,11 @@
       <c r="C172" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D172" s="6" t="s">
+      <c r="D172" s="5" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>41</v>
       </c>
@@ -5181,11 +5184,11 @@
       <c r="C173" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D173" s="6" t="s">
+      <c r="D173" s="5" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>41</v>
       </c>
@@ -5195,11 +5198,11 @@
       <c r="C174" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D174" s="6" t="s">
+      <c r="D174" s="5" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>41</v>
       </c>
@@ -5209,11 +5212,11 @@
       <c r="C175" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D175" s="6" t="s">
+      <c r="D175" s="5" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>41</v>
       </c>
@@ -5223,11 +5226,11 @@
       <c r="C176" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D176" s="6" t="s">
+      <c r="D176" s="5" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>41</v>
       </c>
@@ -5237,11 +5240,11 @@
       <c r="C177" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D177" s="6" t="s">
+      <c r="D177" s="5" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>41</v>
       </c>
@@ -5251,11 +5254,11 @@
       <c r="C178" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D178" s="6" t="s">
+      <c r="D178" s="5" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>41</v>
       </c>
@@ -5265,119 +5268,137 @@
       <c r="C179" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="D179" s="6" t="s">
+      <c r="D179" s="5" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="3"/>
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B180" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="D180" s="6" t="s">
+      <c r="D180" s="5" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="3"/>
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B181" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="D181" s="6" t="s">
+      <c r="D181" s="5" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="3"/>
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B182" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="D182" s="6" t="s">
+      <c r="D182" s="5" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="3"/>
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B183" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="D183" s="6" t="s">
+      <c r="D183" s="5" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="3"/>
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B184" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="D184" s="6" t="s">
+      <c r="D184" s="5" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="3"/>
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B185" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="D185" s="6" t="s">
+      <c r="D185" s="5" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="3"/>
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B186" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="D186" s="6" t="s">
+      <c r="D186" s="5" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="3"/>
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B187" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="D187" s="6" t="s">
+      <c r="D187" s="5" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="3"/>
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B188" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="D188" s="6" t="s">
+      <c r="D188" s="5" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>41</v>
       </c>
@@ -5387,11 +5408,11 @@
       <c r="C189" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="D189" s="6" t="s">
+      <c r="D189" s="5" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>41</v>
       </c>
@@ -5401,11 +5422,11 @@
       <c r="C190" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="D190" s="6" t="s">
+      <c r="D190" s="5" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>41</v>
       </c>
@@ -5415,11 +5436,11 @@
       <c r="C191" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="D191" s="6" t="s">
+      <c r="D191" s="5" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>41</v>
       </c>
@@ -5429,11 +5450,11 @@
       <c r="C192" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="D192" s="6" t="s">
+      <c r="D192" s="5" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>41</v>
       </c>
@@ -5443,11 +5464,11 @@
       <c r="C193" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="D193" s="6" t="s">
+      <c r="D193" s="5" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>41</v>
       </c>
@@ -5457,11 +5478,11 @@
       <c r="C194" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="D194" s="6" t="s">
+      <c r="D194" s="5" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>41</v>
       </c>
@@ -5471,11 +5492,11 @@
       <c r="C195" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="D195" s="6" t="s">
+      <c r="D195" s="5" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>41</v>
       </c>
@@ -5485,11 +5506,11 @@
       <c r="C196" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="D196" s="6" t="s">
+      <c r="D196" s="5" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>41</v>
       </c>
@@ -5499,11 +5520,11 @@
       <c r="C197" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="D197" s="6" t="s">
+      <c r="D197" s="5" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>41</v>
       </c>
@@ -5513,95 +5534,109 @@
       <c r="C198" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D198" s="6" t="s">
+      <c r="D198" s="5" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="3"/>
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B199" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D199" s="6" t="s">
+      <c r="D199" s="5" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="3"/>
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B200" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D200" s="6" t="s">
+      <c r="D200" s="5" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="3"/>
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B201" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D201" s="6" t="s">
+      <c r="D201" s="5" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="3"/>
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B202" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D202" s="6" t="s">
+      <c r="D202" s="5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="3"/>
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B203" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D203" s="6" t="s">
+      <c r="D203" s="5" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="3"/>
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B204" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D204" s="6" t="s">
+      <c r="D204" s="5" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="3"/>
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B205" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D205" s="6" t="s">
+      <c r="D205" s="5" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>41</v>
       </c>
@@ -5611,11 +5646,11 @@
       <c r="C206" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="D206" s="6" t="s">
+      <c r="D206" s="5" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>41</v>
       </c>
@@ -5625,11 +5660,11 @@
       <c r="C207" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="D207" s="6" t="s">
+      <c r="D207" s="5" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>41</v>
       </c>
@@ -5639,11 +5674,11 @@
       <c r="C208" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="D208" s="6" t="s">
+      <c r="D208" s="5" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>41</v>
       </c>
@@ -5653,11 +5688,11 @@
       <c r="C209" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="D209" s="6" t="s">
+      <c r="D209" s="5" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>41</v>
       </c>
@@ -5667,11 +5702,11 @@
       <c r="C210" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="D210" s="6" t="s">
+      <c r="D210" s="5" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>41</v>
       </c>
@@ -5681,11 +5716,11 @@
       <c r="C211" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="D211" s="6" t="s">
+      <c r="D211" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>41</v>
       </c>
@@ -5695,11 +5730,11 @@
       <c r="C212" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="D212" s="6" t="s">
+      <c r="D212" s="5" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>41</v>
       </c>
@@ -5709,11 +5744,11 @@
       <c r="C213" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="D213" s="6" t="s">
+      <c r="D213" s="5" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>41</v>
       </c>
@@ -5723,11 +5758,11 @@
       <c r="C214" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="D214" s="6" t="s">
+      <c r="D214" s="5" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>41</v>
       </c>
@@ -5737,11 +5772,11 @@
       <c r="C215" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="D215" s="6" t="s">
+      <c r="D215" s="5" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>41</v>
       </c>
@@ -5751,11 +5786,11 @@
       <c r="C216" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="D216" s="6" t="s">
+      <c r="D216" s="5" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>41</v>
       </c>
@@ -5765,11 +5800,11 @@
       <c r="C217" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="D217" s="6" t="s">
+      <c r="D217" s="5" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>41</v>
       </c>
@@ -5779,11 +5814,11 @@
       <c r="C218" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="D218" s="6" t="s">
+      <c r="D218" s="5" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>41</v>
       </c>
@@ -5793,11 +5828,11 @@
       <c r="C219" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="D219" s="6" t="s">
+      <c r="D219" s="5" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>41</v>
       </c>
@@ -5807,11 +5842,11 @@
       <c r="C220" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="D220" s="6" t="s">
+      <c r="D220" s="5" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>41</v>
       </c>
@@ -5821,11 +5856,11 @@
       <c r="C221" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="D221" s="6" t="s">
+      <c r="D221" s="5" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>41</v>
       </c>
@@ -5835,11 +5870,11 @@
       <c r="C222" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D222" s="6" t="s">
+      <c r="D222" s="5" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>41</v>
       </c>
@@ -5849,11 +5884,11 @@
       <c r="C223" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D223" s="6" t="s">
+      <c r="D223" s="5" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>41</v>
       </c>
@@ -5863,11 +5898,11 @@
       <c r="C224" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D224" s="6" t="s">
+      <c r="D224" s="5" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>41</v>
       </c>
@@ -5877,11 +5912,11 @@
       <c r="C225" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D225" s="6" t="s">
+      <c r="D225" s="5" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>41</v>
       </c>
@@ -5891,11 +5926,11 @@
       <c r="C226" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D226" s="6" t="s">
+      <c r="D226" s="5" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>41</v>
       </c>
@@ -5905,11 +5940,11 @@
       <c r="C227" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D227" s="6" t="s">
+      <c r="D227" s="5" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>41</v>
       </c>
@@ -5919,11 +5954,11 @@
       <c r="C228" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D228" s="6" t="s">
+      <c r="D228" s="5" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>41</v>
       </c>
@@ -5933,11 +5968,11 @@
       <c r="C229" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D229" s="6" t="s">
+      <c r="D229" s="5" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>41</v>
       </c>
@@ -5947,11 +5982,11 @@
       <c r="C230" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="D230" s="6" t="s">
+      <c r="D230" s="5" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>41</v>
       </c>
@@ -5961,11 +5996,11 @@
       <c r="C231" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="D231" s="6" t="s">
+      <c r="D231" s="5" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>41</v>
       </c>
@@ -5975,11 +6010,11 @@
       <c r="C232" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="D232" s="6" t="s">
+      <c r="D232" s="5" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>41</v>
       </c>
@@ -5989,11 +6024,11 @@
       <c r="C233" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="D233" s="6" t="s">
+      <c r="D233" s="5" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>41</v>
       </c>
@@ -6003,11 +6038,11 @@
       <c r="C234" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="D234" s="6" t="s">
+      <c r="D234" s="5" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>41</v>
       </c>
@@ -6017,11 +6052,11 @@
       <c r="C235" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="D235" s="6" t="s">
+      <c r="D235" s="5" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>41</v>
       </c>
@@ -6031,11 +6066,11 @@
       <c r="C236" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="D236" s="6" t="s">
+      <c r="D236" s="5" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>41</v>
       </c>
@@ -6045,11 +6080,11 @@
       <c r="C237" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="D237" s="6" t="s">
+      <c r="D237" s="5" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>41</v>
       </c>
@@ -6059,11 +6094,11 @@
       <c r="C238" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="D238" s="6" t="s">
+      <c r="D238" s="5" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>41</v>
       </c>
@@ -6073,11 +6108,11 @@
       <c r="C239" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="D239" s="6" t="s">
+      <c r="D239" s="5" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>41</v>
       </c>
@@ -6087,11 +6122,11 @@
       <c r="C240" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D240" s="6" t="s">
+      <c r="D240" s="5" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>41</v>
       </c>
@@ -6101,11 +6136,11 @@
       <c r="C241" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D241" s="6" t="s">
+      <c r="D241" s="5" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>41</v>
       </c>
@@ -6115,11 +6150,11 @@
       <c r="C242" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D242" s="6" t="s">
+      <c r="D242" s="5" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>41</v>
       </c>
@@ -6129,11 +6164,11 @@
       <c r="C243" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D243" s="6" t="s">
+      <c r="D243" s="5" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>41</v>
       </c>
@@ -6143,11 +6178,11 @@
       <c r="C244" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D244" s="6" t="s">
+      <c r="D244" s="5" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>41</v>
       </c>
@@ -6157,11 +6192,11 @@
       <c r="C245" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D245" s="6" t="s">
+      <c r="D245" s="5" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>41</v>
       </c>
@@ -6171,11 +6206,11 @@
       <c r="C246" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D246" s="6" t="s">
+      <c r="D246" s="5" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>41</v>
       </c>
@@ -6185,11 +6220,11 @@
       <c r="C247" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D247" s="6" t="s">
+      <c r="D247" s="5" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>41</v>
       </c>
@@ -6199,11 +6234,11 @@
       <c r="C248" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="D248" s="6" t="s">
+      <c r="D248" s="5" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>41</v>
       </c>
@@ -6213,11 +6248,11 @@
       <c r="C249" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="D249" s="6" t="s">
+      <c r="D249" s="5" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>41</v>
       </c>
@@ -6227,11 +6262,11 @@
       <c r="C250" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="D250" s="6" t="s">
+      <c r="D250" s="5" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>41</v>
       </c>
@@ -6241,11 +6276,11 @@
       <c r="C251" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="D251" s="6" t="s">
+      <c r="D251" s="5" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>41</v>
       </c>
@@ -6255,11 +6290,11 @@
       <c r="C252" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="D252" s="6" t="s">
+      <c r="D252" s="5" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>41</v>
       </c>
@@ -6269,11 +6304,11 @@
       <c r="C253" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="D253" s="6" t="s">
+      <c r="D253" s="5" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>41</v>
       </c>
@@ -6283,11 +6318,11 @@
       <c r="C254" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="D254" s="6" t="s">
+      <c r="D254" s="5" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>41</v>
       </c>
@@ -6297,11 +6332,11 @@
       <c r="C255" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="D255" s="6" t="s">
+      <c r="D255" s="5" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>41</v>
       </c>
@@ -6311,11 +6346,11 @@
       <c r="C256" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D256" s="6" t="s">
+      <c r="D256" s="5" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>41</v>
       </c>
@@ -6325,11 +6360,11 @@
       <c r="C257" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D257" s="6" t="s">
+      <c r="D257" s="5" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>41</v>
       </c>
@@ -6339,11 +6374,11 @@
       <c r="C258" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D258" s="6" t="s">
+      <c r="D258" s="5" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>41</v>
       </c>
@@ -6353,11 +6388,11 @@
       <c r="C259" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D259" s="6" t="s">
+      <c r="D259" s="5" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>41</v>
       </c>
@@ -6367,11 +6402,11 @@
       <c r="C260" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D260" s="6" t="s">
+      <c r="D260" s="5" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>41</v>
       </c>
@@ -6381,11 +6416,11 @@
       <c r="C261" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D261" s="6" t="s">
+      <c r="D261" s="5" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>41</v>
       </c>
@@ -6395,11 +6430,11 @@
       <c r="C262" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D262" s="6" t="s">
+      <c r="D262" s="5" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>41</v>
       </c>
@@ -6409,7 +6444,7 @@
       <c r="C263" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D263" s="6" t="s">
+      <c r="D263" s="5" t="s">
         <v>485</v>
       </c>
     </row>
@@ -6423,7 +6458,7 @@
       <c r="C264" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="D264" s="6" t="s">
+      <c r="D264" s="5" t="s">
         <v>487</v>
       </c>
     </row>
@@ -6437,7 +6472,7 @@
       <c r="C265" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="D265" s="6" t="s">
+      <c r="D265" s="5" t="s">
         <v>488</v>
       </c>
     </row>
@@ -6451,7 +6486,7 @@
       <c r="C266" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="D266" s="6" t="s">
+      <c r="D266" s="5" t="s">
         <v>489</v>
       </c>
     </row>
@@ -6465,7 +6500,7 @@
       <c r="C267" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="D267" s="6" t="s">
+      <c r="D267" s="5" t="s">
         <v>490</v>
       </c>
     </row>
@@ -6479,7 +6514,7 @@
       <c r="C268" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="D268" s="6" t="s">
+      <c r="D268" s="5" t="s">
         <v>491</v>
       </c>
     </row>
@@ -6493,7 +6528,7 @@
       <c r="C269" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="D269" s="6" t="s">
+      <c r="D269" s="5" t="s">
         <v>492</v>
       </c>
     </row>
@@ -6507,7 +6542,7 @@
       <c r="C270" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="D270" s="6" t="s">
+      <c r="D270" s="5" t="s">
         <v>493</v>
       </c>
     </row>
@@ -6521,7 +6556,7 @@
       <c r="C271" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="D271" s="6" t="s">
+      <c r="D271" s="5" t="s">
         <v>494</v>
       </c>
     </row>
@@ -6535,7 +6570,7 @@
       <c r="C272" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="D272" s="6" t="s">
+      <c r="D272" s="5" t="s">
         <v>495</v>
       </c>
     </row>
@@ -6549,11 +6584,11 @@
       <c r="C273" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="D273" s="6" t="s">
+      <c r="D273" s="5" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>41</v>
       </c>
@@ -6563,11 +6598,11 @@
       <c r="C274" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="D274" s="6" t="s">
+      <c r="D274" s="5" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>41</v>
       </c>
@@ -6577,11 +6612,11 @@
       <c r="C275" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="D275" s="6" t="s">
+      <c r="D275" s="5" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>41</v>
       </c>
@@ -6591,11 +6626,11 @@
       <c r="C276" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="D276" s="6" t="s">
+      <c r="D276" s="5" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>41</v>
       </c>
@@ -6605,11 +6640,11 @@
       <c r="C277" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="D277" s="6" t="s">
+      <c r="D277" s="5" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>41</v>
       </c>
@@ -6619,11 +6654,11 @@
       <c r="C278" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="D278" s="6" t="s">
+      <c r="D278" s="5" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>41</v>
       </c>
@@ -6633,11 +6668,11 @@
       <c r="C279" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="D279" s="6" t="s">
+      <c r="D279" s="5" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>41</v>
       </c>
@@ -6647,11 +6682,11 @@
       <c r="C280" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D280" s="6" t="s">
+      <c r="D280" s="5" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>41</v>
       </c>
@@ -6661,11 +6696,11 @@
       <c r="C281" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D281" s="6" t="s">
+      <c r="D281" s="5" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>41</v>
       </c>
@@ -6675,11 +6710,11 @@
       <c r="C282" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D282" s="6" t="s">
+      <c r="D282" s="5" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>41</v>
       </c>
@@ -6689,11 +6724,11 @@
       <c r="C283" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D283" s="6" t="s">
+      <c r="D283" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>41</v>
       </c>
@@ -6703,11 +6738,11 @@
       <c r="C284" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D284" s="6" t="s">
+      <c r="D284" s="5" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>41</v>
       </c>
@@ -6717,11 +6752,11 @@
       <c r="C285" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D285" s="6" t="s">
+      <c r="D285" s="5" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>41</v>
       </c>
@@ -6731,11 +6766,11 @@
       <c r="C286" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D286" s="6" t="s">
+      <c r="D286" s="5" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>41</v>
       </c>
@@ -6745,11 +6780,11 @@
       <c r="C287" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D287" s="6" t="s">
+      <c r="D287" s="5" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>43</v>
       </c>
@@ -6759,11 +6794,11 @@
       <c r="C288" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="D288" s="6" t="s">
+      <c r="D288" s="5" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>43</v>
       </c>
@@ -6773,11 +6808,11 @@
       <c r="C289" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="D289" s="6" t="s">
+      <c r="D289" s="5" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>43</v>
       </c>
@@ -6787,11 +6822,11 @@
       <c r="C290" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="D290" s="6" t="s">
+      <c r="D290" s="5" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>43</v>
       </c>
@@ -6801,11 +6836,11 @@
       <c r="C291" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="D291" s="6" t="s">
+      <c r="D291" s="5" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>43</v>
       </c>
@@ -6815,11 +6850,11 @@
       <c r="C292" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="D292" s="6" t="s">
+      <c r="D292" s="5" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>43</v>
       </c>
@@ -6829,11 +6864,11 @@
       <c r="C293" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="D293" s="6" t="s">
+      <c r="D293" s="5" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>43</v>
       </c>
@@ -6843,11 +6878,11 @@
       <c r="C294" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D294" s="6" t="s">
+      <c r="D294" s="5" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>43</v>
       </c>
@@ -6857,11 +6892,11 @@
       <c r="C295" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D295" s="6" t="s">
+      <c r="D295" s="5" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>43</v>
       </c>
@@ -6871,11 +6906,11 @@
       <c r="C296" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D296" s="6" t="s">
+      <c r="D296" s="5" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>43</v>
       </c>
@@ -6885,11 +6920,11 @@
       <c r="C297" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D297" s="6" t="s">
+      <c r="D297" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>43</v>
       </c>
@@ -6899,11 +6934,11 @@
       <c r="C298" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D298" s="6" t="s">
+      <c r="D298" s="5" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>43</v>
       </c>
@@ -6913,11 +6948,11 @@
       <c r="C299" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D299" s="6" t="s">
+      <c r="D299" s="5" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>43</v>
       </c>
@@ -6927,11 +6962,11 @@
       <c r="C300" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D300" s="6" t="s">
+      <c r="D300" s="5" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>43</v>
       </c>
@@ -6941,11 +6976,11 @@
       <c r="C301" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D301" s="6" t="s">
+      <c r="D301" s="5" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>43</v>
       </c>
@@ -6955,11 +6990,11 @@
       <c r="C302" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D302" s="6" t="s">
+      <c r="D302" s="5" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>43</v>
       </c>
@@ -6969,11 +7004,11 @@
       <c r="C303" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D303" s="6" t="s">
+      <c r="D303" s="5" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>43</v>
       </c>
@@ -6983,11 +7018,11 @@
       <c r="C304" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="D304" s="6" t="s">
+      <c r="D304" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>43</v>
       </c>
@@ -6997,11 +7032,11 @@
       <c r="C305" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="D305" s="6" t="s">
+      <c r="D305" s="5" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>43</v>
       </c>
@@ -7011,11 +7046,11 @@
       <c r="C306" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="D306" s="6" t="s">
+      <c r="D306" s="5" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>43</v>
       </c>
@@ -7025,11 +7060,11 @@
       <c r="C307" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="D307" s="6" t="s">
+      <c r="D307" s="5" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>43</v>
       </c>
@@ -7039,11 +7074,11 @@
       <c r="C308" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="D308" s="6" t="s">
+      <c r="D308" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>43</v>
       </c>
@@ -7053,11 +7088,11 @@
       <c r="C309" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="D309" s="6" t="s">
+      <c r="D309" s="5" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>43</v>
       </c>
@@ -7067,11 +7102,11 @@
       <c r="C310" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="D310" s="6" t="s">
+      <c r="D310" s="5" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>43</v>
       </c>
@@ -7081,11 +7116,11 @@
       <c r="C311" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="D311" s="6" t="s">
+      <c r="D311" s="5" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>43</v>
       </c>
@@ -7095,11 +7130,11 @@
       <c r="C312" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="D312" s="6" t="s">
+      <c r="D312" s="5" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>43</v>
       </c>
@@ -7109,11 +7144,11 @@
       <c r="C313" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="D313" s="6" t="s">
+      <c r="D313" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>43</v>
       </c>
@@ -7123,11 +7158,11 @@
       <c r="C314" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="D314" s="6" t="s">
+      <c r="D314" s="5" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>43</v>
       </c>
@@ -7137,11 +7172,11 @@
       <c r="C315" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="D315" s="6" t="s">
+      <c r="D315" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>43</v>
       </c>
@@ -7151,11 +7186,11 @@
       <c r="C316" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="D316" s="6" t="s">
+      <c r="D316" s="5" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>43</v>
       </c>
@@ -7165,11 +7200,11 @@
       <c r="C317" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="D317" s="6" t="s">
+      <c r="D317" s="5" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>43</v>
       </c>
@@ -7179,11 +7214,11 @@
       <c r="C318" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="D318" s="6" t="s">
+      <c r="D318" s="5" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>43</v>
       </c>
@@ -7193,11 +7228,11 @@
       <c r="C319" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="D319" s="6" t="s">
+      <c r="D319" s="5" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>43</v>
       </c>
@@ -7207,11 +7242,11 @@
       <c r="C320" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="D320" s="6" t="s">
+      <c r="D320" s="5" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>43</v>
       </c>
@@ -7221,11 +7256,11 @@
       <c r="C321" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="D321" s="6" t="s">
+      <c r="D321" s="5" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>43</v>
       </c>
@@ -7235,11 +7270,11 @@
       <c r="C322" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="D322" s="6" t="s">
+      <c r="D322" s="5" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>43</v>
       </c>
@@ -7249,11 +7284,11 @@
       <c r="C323" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="D323" s="6" t="s">
+      <c r="D323" s="5" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>43</v>
       </c>
@@ -7263,11 +7298,11 @@
       <c r="C324" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="D324" s="6" t="s">
+      <c r="D324" s="5" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>43</v>
       </c>
@@ -7277,11 +7312,11 @@
       <c r="C325" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="D325" s="6" t="s">
+      <c r="D325" s="5" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>43</v>
       </c>
@@ -7291,11 +7326,11 @@
       <c r="C326" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="D326" s="6" t="s">
+      <c r="D326" s="5" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>43</v>
       </c>
@@ -7305,11 +7340,11 @@
       <c r="C327" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="D327" s="6" t="s">
+      <c r="D327" s="5" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>43</v>
       </c>
@@ -7319,11 +7354,11 @@
       <c r="C328" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="D328" s="6" t="s">
+      <c r="D328" s="5" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>43</v>
       </c>
@@ -7333,11 +7368,11 @@
       <c r="C329" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="D329" s="6" t="s">
+      <c r="D329" s="5" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>43</v>
       </c>
@@ -7347,11 +7382,11 @@
       <c r="C330" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="D330" s="6" t="s">
+      <c r="D330" s="5" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>43</v>
       </c>
@@ -7361,11 +7396,11 @@
       <c r="C331" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="D331" s="6" t="s">
+      <c r="D331" s="5" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>43</v>
       </c>
@@ -7375,11 +7410,11 @@
       <c r="C332" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="D332" s="6" t="s">
+      <c r="D332" s="5" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>43</v>
       </c>
@@ -7389,11 +7424,11 @@
       <c r="C333" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="D333" s="6" t="s">
+      <c r="D333" s="5" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>43</v>
       </c>
@@ -7403,11 +7438,11 @@
       <c r="C334" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="D334" s="6" t="s">
+      <c r="D334" s="5" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>43</v>
       </c>
@@ -7417,11 +7452,11 @@
       <c r="C335" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="D335" s="6" t="s">
+      <c r="D335" s="5" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>43</v>
       </c>
@@ -7431,11 +7466,11 @@
       <c r="C336" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="D336" s="6" t="s">
+      <c r="D336" s="5" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>43</v>
       </c>
@@ -7445,11 +7480,11 @@
       <c r="C337" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="D337" s="6" t="s">
+      <c r="D337" s="5" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>43</v>
       </c>
@@ -7459,11 +7494,11 @@
       <c r="C338" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="D338" s="6" t="s">
+      <c r="D338" s="5" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>43</v>
       </c>
@@ -7473,11 +7508,11 @@
       <c r="C339" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="D339" s="6" t="s">
+      <c r="D339" s="5" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>43</v>
       </c>
@@ -7487,11 +7522,11 @@
       <c r="C340" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="D340" s="6" t="s">
+      <c r="D340" s="5" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>43</v>
       </c>
@@ -7501,11 +7536,11 @@
       <c r="C341" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="D341" s="6" t="s">
+      <c r="D341" s="5" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>43</v>
       </c>
@@ -7515,11 +7550,11 @@
       <c r="C342" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="D342" s="6" t="s">
+      <c r="D342" s="5" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>43</v>
       </c>
@@ -7529,11 +7564,11 @@
       <c r="C343" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="D343" s="6" t="s">
+      <c r="D343" s="5" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>43</v>
       </c>
@@ -7543,11 +7578,11 @@
       <c r="C344" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="D344" s="6" t="s">
+      <c r="D344" s="5" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>43</v>
       </c>
@@ -7557,11 +7592,11 @@
       <c r="C345" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="D345" s="6" t="s">
+      <c r="D345" s="5" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>43</v>
       </c>
@@ -7571,11 +7606,11 @@
       <c r="C346" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="D346" s="6" t="s">
+      <c r="D346" s="5" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>43</v>
       </c>
@@ -7585,11 +7620,11 @@
       <c r="C347" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="D347" s="6" t="s">
+      <c r="D347" s="5" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>43</v>
       </c>
@@ -7599,11 +7634,11 @@
       <c r="C348" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="D348" s="6" t="s">
+      <c r="D348" s="5" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>43</v>
       </c>
@@ -7613,11 +7648,11 @@
       <c r="C349" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="D349" s="6" t="s">
+      <c r="D349" s="5" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>43</v>
       </c>
@@ -7627,11 +7662,11 @@
       <c r="C350" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="D350" s="6" t="s">
+      <c r="D350" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>43</v>
       </c>
@@ -7641,11 +7676,11 @@
       <c r="C351" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="D351" s="6" t="s">
+      <c r="D351" s="5" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>43</v>
       </c>
@@ -7655,11 +7690,11 @@
       <c r="C352" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="D352" s="6" t="s">
+      <c r="D352" s="5" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>43</v>
       </c>
@@ -7669,11 +7704,11 @@
       <c r="C353" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="D353" s="6" t="s">
+      <c r="D353" s="5" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>43</v>
       </c>
@@ -7683,11 +7718,11 @@
       <c r="C354" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="D354" s="6" t="s">
+      <c r="D354" s="5" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>43</v>
       </c>
@@ -7697,11 +7732,11 @@
       <c r="C355" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="D355" s="6" t="s">
+      <c r="D355" s="5" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>60</v>
       </c>
@@ -7711,11 +7746,11 @@
       <c r="C356" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D356" s="6" t="s">
+      <c r="D356" s="5" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>60</v>
       </c>
@@ -7725,11 +7760,11 @@
       <c r="C357" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D357" s="6" t="s">
+      <c r="D357" s="5" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>60</v>
       </c>
@@ -7739,11 +7774,11 @@
       <c r="C358" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D358" s="6" t="s">
+      <c r="D358" s="5" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>60</v>
       </c>
@@ -7753,11 +7788,11 @@
       <c r="C359" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D359" s="6" t="s">
+      <c r="D359" s="5" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>60</v>
       </c>
@@ -7767,11 +7802,11 @@
       <c r="C360" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D360" s="6" t="s">
+      <c r="D360" s="5" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>60</v>
       </c>
@@ -7781,11 +7816,11 @@
       <c r="C361" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D361" s="6" t="s">
+      <c r="D361" s="5" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>60</v>
       </c>
@@ -7795,11 +7830,11 @@
       <c r="C362" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="D362" s="6" t="s">
+      <c r="D362" s="5" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>60</v>
       </c>
@@ -7809,11 +7844,11 @@
       <c r="C363" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="D363" s="6" t="s">
+      <c r="D363" s="5" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>60</v>
       </c>
@@ -7823,11 +7858,11 @@
       <c r="C364" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="D364" s="6" t="s">
+      <c r="D364" s="5" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>60</v>
       </c>
@@ -7837,11 +7872,11 @@
       <c r="C365" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="D365" s="6" t="s">
+      <c r="D365" s="5" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>60</v>
       </c>
@@ -7851,11 +7886,11 @@
       <c r="C366" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="D366" s="6" t="s">
+      <c r="D366" s="5" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>60</v>
       </c>
@@ -7865,11 +7900,11 @@
       <c r="C367" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="D367" s="6" t="s">
+      <c r="D367" s="5" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>60</v>
       </c>
@@ -7879,11 +7914,11 @@
       <c r="C368" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="D368" s="6" t="s">
+      <c r="D368" s="5" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
         <v>60</v>
       </c>
@@ -7893,11 +7928,11 @@
       <c r="C369" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="D369" s="6" t="s">
+      <c r="D369" s="5" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
         <v>60</v>
       </c>
@@ -7907,11 +7942,11 @@
       <c r="C370" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="D370" s="6" t="s">
+      <c r="D370" s="5" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
         <v>60</v>
       </c>
@@ -7921,11 +7956,11 @@
       <c r="C371" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="D371" s="6" t="s">
+      <c r="D371" s="5" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>60</v>
       </c>
@@ -7935,11 +7970,11 @@
       <c r="C372" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="D372" s="6" t="s">
+      <c r="D372" s="5" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>60</v>
       </c>
@@ -7949,11 +7984,11 @@
       <c r="C373" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="D373" s="6" t="s">
+      <c r="D373" s="5" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
         <v>60</v>
       </c>
@@ -7963,11 +7998,11 @@
       <c r="C374" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="D374" s="6" t="s">
+      <c r="D374" s="5" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
         <v>60</v>
       </c>
@@ -7977,11 +8012,11 @@
       <c r="C375" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="D375" s="6" t="s">
+      <c r="D375" s="5" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>60</v>
       </c>
@@ -7991,11 +8026,11 @@
       <c r="C376" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="D376" s="6" t="s">
+      <c r="D376" s="5" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
         <v>60</v>
       </c>
@@ -8005,11 +8040,11 @@
       <c r="C377" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="D377" s="6" t="s">
+      <c r="D377" s="5" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
         <v>60</v>
       </c>
@@ -8019,11 +8054,11 @@
       <c r="C378" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="D378" s="6" t="s">
+      <c r="D378" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>60</v>
       </c>
@@ -8033,11 +8068,11 @@
       <c r="C379" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="D379" s="6" t="s">
+      <c r="D379" s="5" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>60</v>
       </c>
@@ -8047,11 +8082,11 @@
       <c r="C380" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="D380" s="6" t="s">
+      <c r="D380" s="5" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
         <v>60</v>
       </c>
@@ -8061,11 +8096,11 @@
       <c r="C381" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="D381" s="6" t="s">
+      <c r="D381" s="5" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
         <v>60</v>
       </c>
@@ -8075,11 +8110,11 @@
       <c r="C382" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="D382" s="6" t="s">
+      <c r="D382" s="5" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
         <v>60</v>
       </c>
@@ -8089,11 +8124,11 @@
       <c r="C383" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="D383" s="6" t="s">
+      <c r="D383" s="5" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
         <v>60</v>
       </c>
@@ -8103,11 +8138,11 @@
       <c r="C384" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="D384" s="6" t="s">
+      <c r="D384" s="5" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>60</v>
       </c>
@@ -8117,11 +8152,11 @@
       <c r="C385" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="D385" s="6" t="s">
+      <c r="D385" s="5" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
         <v>60</v>
       </c>
@@ -8131,11 +8166,11 @@
       <c r="C386" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="D386" s="6" t="s">
+      <c r="D386" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
         <v>60</v>
       </c>
@@ -8145,11 +8180,11 @@
       <c r="C387" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="D387" s="6" t="s">
+      <c r="D387" s="5" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
         <v>60</v>
       </c>
@@ -8159,11 +8194,11 @@
       <c r="C388" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="D388" s="6" t="s">
+      <c r="D388" s="5" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
         <v>60</v>
       </c>
@@ -8173,11 +8208,11 @@
       <c r="C389" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="D389" s="6" t="s">
+      <c r="D389" s="5" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
         <v>60</v>
       </c>
@@ -8187,11 +8222,11 @@
       <c r="C390" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="D390" s="6" t="s">
+      <c r="D390" s="5" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
         <v>60</v>
       </c>
@@ -8201,11 +8236,11 @@
       <c r="C391" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="D391" s="6" t="s">
+      <c r="D391" s="5" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
         <v>60</v>
       </c>
@@ -8215,11 +8250,11 @@
       <c r="C392" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="D392" s="6" t="s">
+      <c r="D392" s="5" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
         <v>60</v>
       </c>
@@ -8229,11 +8264,11 @@
       <c r="C393" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="D393" s="6" t="s">
+      <c r="D393" s="5" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>60</v>
       </c>
@@ -8243,11 +8278,11 @@
       <c r="C394" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="D394" s="6" t="s">
+      <c r="D394" s="5" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
         <v>60</v>
       </c>
@@ -8257,11 +8292,11 @@
       <c r="C395" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="D395" s="6" t="s">
+      <c r="D395" s="5" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
         <v>60</v>
       </c>
@@ -8271,11 +8306,11 @@
       <c r="C396" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="D396" s="6" t="s">
+      <c r="D396" s="5" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
         <v>60</v>
       </c>
@@ -8285,11 +8320,11 @@
       <c r="C397" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="D397" s="6" t="s">
+      <c r="D397" s="5" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
         <v>60</v>
       </c>
@@ -8299,11 +8334,11 @@
       <c r="C398" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D398" s="6" t="s">
+      <c r="D398" s="5" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
         <v>60</v>
       </c>
@@ -8313,11 +8348,11 @@
       <c r="C399" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D399" s="6" t="s">
+      <c r="D399" s="5" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
         <v>60</v>
       </c>
@@ -8327,11 +8362,11 @@
       <c r="C400" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D400" s="6" t="s">
+      <c r="D400" s="5" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
         <v>60</v>
       </c>
@@ -8341,11 +8376,11 @@
       <c r="C401" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D401" s="6" t="s">
+      <c r="D401" s="5" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
         <v>60</v>
       </c>
@@ -8355,11 +8390,11 @@
       <c r="C402" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D402" s="6" t="s">
+      <c r="D402" s="5" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
         <v>60</v>
       </c>
@@ -8369,11 +8404,11 @@
       <c r="C403" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D403" s="6" t="s">
+      <c r="D403" s="5" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
         <v>60</v>
       </c>
@@ -8383,11 +8418,11 @@
       <c r="C404" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="D404" s="6" t="s">
+      <c r="D404" s="5" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>60</v>
       </c>
@@ -8397,11 +8432,11 @@
       <c r="C405" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="D405" s="6" t="s">
+      <c r="D405" s="5" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>60</v>
       </c>
@@ -8411,11 +8446,11 @@
       <c r="C406" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="D406" s="6" t="s">
+      <c r="D406" s="5" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
         <v>60</v>
       </c>
@@ -8425,11 +8460,11 @@
       <c r="C407" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="D407" s="6" t="s">
+      <c r="D407" s="5" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
         <v>60</v>
       </c>
@@ -8439,11 +8474,11 @@
       <c r="C408" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="D408" s="6" t="s">
+      <c r="D408" s="5" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
         <v>60</v>
       </c>
@@ -8453,11 +8488,11 @@
       <c r="C409" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="D409" s="6" t="s">
+      <c r="D409" s="5" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
         <v>60</v>
       </c>
@@ -8467,11 +8502,11 @@
       <c r="C410" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="D410" s="6" t="s">
+      <c r="D410" s="5" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
         <v>60</v>
       </c>
@@ -8481,11 +8516,11 @@
       <c r="C411" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="D411" s="6" t="s">
+      <c r="D411" s="5" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
         <v>60</v>
       </c>
@@ -8495,11 +8530,11 @@
       <c r="C412" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="D412" s="6" t="s">
+      <c r="D412" s="5" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
         <v>60</v>
       </c>
@@ -8509,11 +8544,11 @@
       <c r="C413" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="D413" s="6" t="s">
+      <c r="D413" s="5" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
         <v>60</v>
       </c>
@@ -8523,11 +8558,11 @@
       <c r="C414" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="D414" s="6" t="s">
+      <c r="D414" s="5" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
         <v>60</v>
       </c>
@@ -8537,11 +8572,11 @@
       <c r="C415" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="D415" s="6" t="s">
+      <c r="D415" s="5" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
         <v>60</v>
       </c>
@@ -8551,11 +8586,11 @@
       <c r="C416" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="D416" s="6" t="s">
+      <c r="D416" s="5" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
         <v>60</v>
       </c>
@@ -8565,11 +8600,11 @@
       <c r="C417" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="D417" s="6" t="s">
+      <c r="D417" s="5" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
         <v>60</v>
       </c>
@@ -8579,11 +8614,11 @@
       <c r="C418" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="D418" s="6" t="s">
+      <c r="D418" s="5" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
         <v>60</v>
       </c>
@@ -8593,11 +8628,11 @@
       <c r="C419" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="D419" s="6" t="s">
+      <c r="D419" s="5" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>60</v>
       </c>
@@ -8607,11 +8642,11 @@
       <c r="C420" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="D420" s="6" t="s">
+      <c r="D420" s="5" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
         <v>60</v>
       </c>
@@ -8621,11 +8656,11 @@
       <c r="C421" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="D421" s="6" t="s">
+      <c r="D421" s="5" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
         <v>60</v>
       </c>
@@ -8635,11 +8670,11 @@
       <c r="C422" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="D422" s="6" t="s">
+      <c r="D422" s="5" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
         <v>60</v>
       </c>
@@ -8649,11 +8684,11 @@
       <c r="C423" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="D423" s="6" t="s">
+      <c r="D423" s="5" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
         <v>60</v>
       </c>
@@ -8663,11 +8698,11 @@
       <c r="C424" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="D424" s="6" t="s">
+      <c r="D424" s="5" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
         <v>60</v>
       </c>
@@ -8677,11 +8712,11 @@
       <c r="C425" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="D425" s="6" t="s">
+      <c r="D425" s="5" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
         <v>60</v>
       </c>
@@ -8691,11 +8726,11 @@
       <c r="C426" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="D426" s="6" t="s">
+      <c r="D426" s="5" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
         <v>60</v>
       </c>
@@ -8705,11 +8740,11 @@
       <c r="C427" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="D427" s="6" t="s">
+      <c r="D427" s="5" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
         <v>60</v>
       </c>
@@ -8719,11 +8754,11 @@
       <c r="C428" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="D428" s="6" t="s">
+      <c r="D428" s="5" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
         <v>60</v>
       </c>
@@ -8733,11 +8768,11 @@
       <c r="C429" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="D429" s="6" t="s">
+      <c r="D429" s="5" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
         <v>60</v>
       </c>
@@ -8747,11 +8782,11 @@
       <c r="C430" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="D430" s="6" t="s">
+      <c r="D430" s="5" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
         <v>60</v>
       </c>
@@ -8761,11 +8796,11 @@
       <c r="C431" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="D431" s="6" t="s">
+      <c r="D431" s="5" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
         <v>60</v>
       </c>
@@ -8775,11 +8810,11 @@
       <c r="C432" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="D432" s="6" t="s">
+      <c r="D432" s="5" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
         <v>60</v>
       </c>
@@ -8789,11 +8824,11 @@
       <c r="C433" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="D433" s="6" t="s">
+      <c r="D433" s="5" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
         <v>60</v>
       </c>
@@ -8803,11 +8838,11 @@
       <c r="C434" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="D434" s="6" t="s">
+      <c r="D434" s="5" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
         <v>60</v>
       </c>
@@ -8817,11 +8852,11 @@
       <c r="C435" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="D435" s="6" t="s">
+      <c r="D435" s="5" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
         <v>60</v>
       </c>
@@ -8831,11 +8866,11 @@
       <c r="C436" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="D436" s="6" t="s">
+      <c r="D436" s="5" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
         <v>60</v>
       </c>
@@ -8845,7 +8880,7 @@
       <c r="C437" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="D437" s="6" t="s">
+      <c r="D437" s="5" t="s">
         <v>684</v>
       </c>
     </row>
@@ -8853,27 +8888,39 @@
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
-      <c r="D438" s="6"/>
+      <c r="D438" s="5"/>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
-      <c r="D439" s="6"/>
+      <c r="D439" s="5"/>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
-      <c r="D440" s="6"/>
+      <c r="D440" s="5"/>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
-      <c r="D441" s="6"/>
+      <c r="D441" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D437" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="metropolitana"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="santiago"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -8881,685 +8928,686 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AAF411-BB21-4A2F-A2AC-99DF4901AC67}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E81" sqref="E80:E81"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
     <col min="3" max="4" width="25.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>68</v>
+        <v>128</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>69</v>
+        <v>121</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>70</v>
+        <v>124</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>71</v>
+        <v>132</v>
+      </c>
+      <c r="G5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>73</v>
+        <v>123</v>
+      </c>
+      <c r="G7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>74</v>
+        <v>114</v>
+      </c>
+      <c r="F8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>75</v>
+        <v>136</v>
+      </c>
+      <c r="G9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="E11" t="s">
-        <v>120</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>77</v>
+        <v>137</v>
+      </c>
+      <c r="G11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>79</v>
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="E14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>80</v>
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E15" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E16" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>85</v>
+        <v>131</v>
+      </c>
+      <c r="G19" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>86</v>
+        <v>138</v>
+      </c>
+      <c r="G20" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="E21" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>87</v>
+        <v>141</v>
+      </c>
+      <c r="G21" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>89</v>
+        <v>115</v>
+      </c>
+      <c r="F23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="E24" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>90</v>
+        <v>112</v>
+      </c>
+      <c r="F24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="E26" t="s">
-        <v>135</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>92</v>
+        <v>116</v>
+      </c>
+      <c r="G26" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E27" t="s">
-        <v>136</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>93</v>
+        <v>125</v>
+      </c>
+      <c r="G27" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="E28" t="s">
-        <v>137</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>94</v>
+        <v>119</v>
+      </c>
+      <c r="G28" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E29" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>95</v>
+        <v>129</v>
+      </c>
+      <c r="G29" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E30" t="s">
-        <v>139</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="E31" t="s">
-        <v>140</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>97</v>
+        <v>118</v>
+      </c>
+      <c r="G31" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E32" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>98</v>
+        <v>130</v>
+      </c>
+      <c r="G32" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -9571,15 +9619,15 @@
       <c r="E33" t="s">
         <v>142</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="A34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -9587,17 +9635,17 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s">
-        <v>143</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>100</v>
+        <v>148</v>
+      </c>
+      <c r="G34" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -9605,17 +9653,14 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s">
-        <v>144</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -9623,17 +9668,17 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s">
-        <v>145</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>102</v>
+        <v>146</v>
+      </c>
+      <c r="G36" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="6" t="s">
+      <c r="A37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -9641,17 +9686,17 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s">
-        <v>146</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>103</v>
+        <v>151</v>
+      </c>
+      <c r="G37" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="6" t="s">
+      <c r="A38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -9659,17 +9704,17 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s">
-        <v>147</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>104</v>
+        <v>150</v>
+      </c>
+      <c r="G38" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -9677,17 +9722,14 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s">
-        <v>148</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="6" t="s">
+      <c r="A40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -9695,17 +9737,14 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s">
-        <v>149</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="6" t="s">
+      <c r="A41" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -9713,17 +9752,14 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s">
-        <v>150</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="6" t="s">
+      <c r="A42" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -9731,17 +9767,17 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s">
-        <v>151</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>108</v>
+        <v>147</v>
+      </c>
+      <c r="G42" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="6" t="s">
+      <c r="A43" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -9749,14 +9785,17 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s">
-        <v>152</v>
+        <v>144</v>
+      </c>
+      <c r="G43" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="6" t="s">
+      <c r="A44" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -9764,14 +9803,14 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="6" t="s">
+      <c r="A45" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -9779,14 +9818,17 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s">
-        <v>154</v>
+        <v>145</v>
+      </c>
+      <c r="G45" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="6" t="s">
+      <c r="A46" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -9794,14 +9836,17 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s">
-        <v>155</v>
+        <v>149</v>
+      </c>
+      <c r="G46" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="6" t="s">
+      <c r="A47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -9809,14 +9854,17 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -9828,18 +9876,18 @@
       <c r="E48" t="s">
         <v>715</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" t="s">
         <v>728</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -9851,18 +9899,18 @@
       <c r="E49" t="s">
         <v>716</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" t="s">
         <v>729</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -9874,18 +9922,18 @@
       <c r="E50" t="s">
         <v>717</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" t="s">
         <v>730</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -9897,15 +9945,15 @@
       <c r="E51" t="s">
         <v>718</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -9917,15 +9965,15 @@
       <c r="E52" t="s">
         <v>719</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -9937,15 +9985,15 @@
       <c r="E53" t="s">
         <v>720</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G53" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -9957,15 +10005,15 @@
       <c r="E54" t="s">
         <v>721</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G54" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -9977,15 +10025,15 @@
       <c r="E55" t="s">
         <v>722</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -9997,15 +10045,15 @@
       <c r="E56" t="s">
         <v>723</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G56" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -10017,15 +10065,15 @@
       <c r="E57" t="s">
         <v>724</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G57" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -10037,15 +10085,15 @@
       <c r="E58" t="s">
         <v>725</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -10058,11 +10106,11 @@
         <v>726</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -10075,11 +10123,11 @@
         <v>727</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -10089,11 +10137,11 @@
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -10103,11 +10151,11 @@
         <v>701</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -10117,11 +10165,11 @@
         <v>702</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -10131,11 +10179,11 @@
         <v>703</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -10145,11 +10193,11 @@
         <v>704</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -10159,11 +10207,11 @@
         <v>705</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -10173,11 +10221,11 @@
         <v>706</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -10187,11 +10235,11 @@
         <v>707</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -10201,11 +10249,11 @@
         <v>708</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -10215,11 +10263,11 @@
         <v>709</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -10229,11 +10277,11 @@
         <v>710</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -10243,11 +10291,11 @@
         <v>711</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -10257,11 +10305,11 @@
         <v>712</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -10271,11 +10319,11 @@
         <v>713</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -10285,11 +10333,11 @@
         <v>714</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B76" s="6" t="s">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>742</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -10301,18 +10349,18 @@
       <c r="E76" t="s">
         <v>764</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" t="s">
         <v>775</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G76" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B77" s="6" t="s">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>742</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -10324,18 +10372,18 @@
       <c r="E77" t="s">
         <v>765</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" t="s">
         <v>776</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="G77" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B78" s="6" t="s">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>742</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -10347,18 +10395,18 @@
       <c r="E78" t="s">
         <v>766</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" t="s">
         <v>777</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="G78" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B79" s="6" t="s">
+    <row r="79" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>742</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -10370,18 +10418,18 @@
       <c r="E79" t="s">
         <v>767</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" t="s">
         <v>778</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G79" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B80" s="6" t="s">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>742</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -10393,18 +10441,18 @@
       <c r="E80" t="s">
         <v>768</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" t="s">
         <v>779</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="G80" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B81" s="6" t="s">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>742</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -10416,15 +10464,15 @@
       <c r="E81" t="s">
         <v>769</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="G81" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B82" s="6" t="s">
+    <row r="82" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>742</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -10436,15 +10484,15 @@
       <c r="E82" t="s">
         <v>770</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="G82" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B83" s="6" t="s">
+    <row r="83" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>742</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -10456,15 +10504,15 @@
       <c r="E83" t="s">
         <v>771</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="G83" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B84" s="6" t="s">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>742</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -10476,15 +10524,15 @@
       <c r="E84" t="s">
         <v>772</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="G84" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B85" s="6" t="s">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>742</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -10497,11 +10545,11 @@
         <v>773</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B86" s="6" t="s">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>742</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -10514,11 +10562,11 @@
         <v>774</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B87" s="6" t="s">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>742</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -10528,11 +10576,11 @@
         <v>755</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B88" s="6" t="s">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>742</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -10542,11 +10590,11 @@
         <v>756</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B89" s="6" t="s">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>742</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -10556,11 +10604,11 @@
         <v>757</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B90" s="6" t="s">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>742</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -10570,11 +10618,11 @@
         <v>758</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B91" s="6" t="s">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>742</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -10584,11 +10632,11 @@
         <v>759</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B92" s="6" t="s">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>742</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -10598,11 +10646,11 @@
         <v>760</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B93" s="6" t="s">
+    <row r="93" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>742</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -10612,11 +10660,11 @@
         <v>761</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B94" s="6" t="s">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>742</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -10626,11 +10674,11 @@
         <v>762</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B95" s="6" t="s">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>742</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -10641,6 +10689,16 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G95" xr:uid="{D3AAF411-BB21-4A2F-A2AC-99DF4901AC67}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="metropolitana"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G47">
+      <sortCondition ref="D1:D95"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
